--- a/NIS.xlsx
+++ b/NIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Radar" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -77,7 +77,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,751 +1000,751 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>74.7735</c:v>
+                  <c:v>8.219060000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.241672</c:v>
+                  <c:v>1.75635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.36582</c:v>
+                  <c:v>1.83822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.7596</c:v>
+                  <c:v>5.87828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.81046</c:v>
+                  <c:v>1.09338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.00899</c:v>
+                  <c:v>1.6774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7078</c:v>
+                  <c:v>2.79015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.16389</c:v>
+                  <c:v>1.15525</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.75135</c:v>
+                  <c:v>3.09725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.41135</c:v>
+                  <c:v>1.01925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.99634</c:v>
+                  <c:v>3.17543</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.06786</c:v>
+                  <c:v>2.22276</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.43514</c:v>
+                  <c:v>4.0374</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.52002</c:v>
+                  <c:v>3.94858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.96103</c:v>
+                  <c:v>3.59827</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.31421</c:v>
+                  <c:v>6.14772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.64909</c:v>
+                  <c:v>5.13622</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.18188</c:v>
+                  <c:v>2.4141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.76546</c:v>
+                  <c:v>3.86556</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.70174</c:v>
+                  <c:v>4.5743</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.20466</c:v>
+                  <c:v>1.15622</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.05084</c:v>
+                  <c:v>2.5664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.590266</c:v>
+                  <c:v>0.671934</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.93743</c:v>
+                  <c:v>1.71024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.89436</c:v>
+                  <c:v>2.08908</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.2652</c:v>
+                  <c:v>14.0335</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.25229</c:v>
+                  <c:v>1.00918</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.06213</c:v>
+                  <c:v>1.02463</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.60469</c:v>
+                  <c:v>2.78815</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.45572</c:v>
+                  <c:v>1.63719</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0329</c:v>
+                  <c:v>1.75539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.06765</c:v>
+                  <c:v>2.03228</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.181065</c:v>
+                  <c:v>0.179128</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.05899</c:v>
+                  <c:v>6.92799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.14563</c:v>
+                  <c:v>2.65735</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.16679</c:v>
+                  <c:v>4.41834</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.06264</c:v>
+                  <c:v>2.97832</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.764895</c:v>
+                  <c:v>1.01009</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.811553</c:v>
+                  <c:v>0.892864</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.102259</c:v>
+                  <c:v>0.0757383</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.21186</c:v>
+                  <c:v>4.91979</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.843204</c:v>
+                  <c:v>0.502722</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.23306</c:v>
+                  <c:v>2.83356</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.72224</c:v>
+                  <c:v>1.31279</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.519048</c:v>
+                  <c:v>0.632883</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.63773</c:v>
+                  <c:v>1.62118</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.20128</c:v>
+                  <c:v>4.80395</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.45896</c:v>
+                  <c:v>1.39598</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.11954</c:v>
+                  <c:v>2.50782</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.0916</c:v>
+                  <c:v>6.2852</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.62104</c:v>
+                  <c:v>4.19639</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.48796</c:v>
+                  <c:v>2.31706</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.18401</c:v>
+                  <c:v>5.54633</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.564747</c:v>
+                  <c:v>0.347524</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.35684</c:v>
+                  <c:v>1.93667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.517332</c:v>
+                  <c:v>0.332159</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.75728</c:v>
+                  <c:v>2.9691</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.1374</c:v>
+                  <c:v>11.276</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.56284</c:v>
+                  <c:v>1.93799</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.997609</c:v>
+                  <c:v>0.698756</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.46396</c:v>
+                  <c:v>1.13789</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.99169</c:v>
+                  <c:v>9.52943</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.31519</c:v>
+                  <c:v>4.765</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.51011</c:v>
+                  <c:v>1.17477</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.49991</c:v>
+                  <c:v>2.03689</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.137840000000001</c:v>
+                  <c:v>7.52571</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.88322</c:v>
+                  <c:v>1.31883</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.24778</c:v>
+                  <c:v>3.64757</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.79406</c:v>
+                  <c:v>3.42011</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.8031</c:v>
+                  <c:v>9.99537</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.17723</c:v>
+                  <c:v>2.61543</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.49962</c:v>
+                  <c:v>7.54239</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.41957</c:v>
+                  <c:v>1.3225</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.09801</c:v>
+                  <c:v>1.54453</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.315121</c:v>
+                  <c:v>0.444735</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.31954</c:v>
+                  <c:v>2.10494</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.83134</c:v>
+                  <c:v>1.87022</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.93888</c:v>
+                  <c:v>3.46479</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.05709</c:v>
+                  <c:v>0.989593</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.19666</c:v>
+                  <c:v>1.13395</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.8593</c:v>
+                  <c:v>3.91365</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.94572</c:v>
+                  <c:v>5.27505</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.51605</c:v>
+                  <c:v>1.56083</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.17018</c:v>
+                  <c:v>3.18028</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.16964</c:v>
+                  <c:v>2.10323</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.26883</c:v>
+                  <c:v>3.98694</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.0284946</c:v>
+                  <c:v>0.029095</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.25955</c:v>
+                  <c:v>3.19949</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.458277</c:v>
+                  <c:v>0.526591</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.627698</c:v>
+                  <c:v>0.644718</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.58672</c:v>
+                  <c:v>2.57546</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.70524</c:v>
+                  <c:v>2.81779</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.586539</c:v>
+                  <c:v>0.564025</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.51169</c:v>
+                  <c:v>4.42554</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.12127</c:v>
+                  <c:v>3.20548</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.41288</c:v>
+                  <c:v>1.38254</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>8.10101</c:v>
+                  <c:v>8.07518</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.7264</c:v>
+                  <c:v>2.75095</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.76716</c:v>
+                  <c:v>3.68515</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.35535</c:v>
+                  <c:v>1.35174</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3.15885</c:v>
+                  <c:v>3.15159</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.5603</c:v>
+                  <c:v>6.32728</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.07677</c:v>
+                  <c:v>1.95912</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.11707</c:v>
+                  <c:v>1.06697</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.74269</c:v>
+                  <c:v>2.50495</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2.64871</c:v>
+                  <c:v>2.66285</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.41388</c:v>
+                  <c:v>1.32359</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.08971</c:v>
+                  <c:v>4.59142</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.21067</c:v>
+                  <c:v>1.87934</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.38315</c:v>
+                  <c:v>1.22572</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.73275</c:v>
+                  <c:v>3.32337</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.28978</c:v>
+                  <c:v>3.07599</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.11276</c:v>
+                  <c:v>1.62429</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.62571</c:v>
+                  <c:v>3.72834</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.638618</c:v>
+                  <c:v>0.578877</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.77339</c:v>
+                  <c:v>1.31997</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.964749</c:v>
+                  <c:v>1.12688</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.24716</c:v>
+                  <c:v>2.74032</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.69305</c:v>
+                  <c:v>2.02499</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.14098</c:v>
+                  <c:v>3.52288</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.47579</c:v>
+                  <c:v>5.16345</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.53427</c:v>
+                  <c:v>7.18389</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.541348</c:v>
+                  <c:v>0.770476</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.73183</c:v>
+                  <c:v>5.93953</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.8736</c:v>
+                  <c:v>2.75717</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.90289</c:v>
+                  <c:v>3.72286</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.164301</c:v>
+                  <c:v>0.11597</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.90293</c:v>
+                  <c:v>4.65999</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.809964</c:v>
+                  <c:v>0.773257</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.98671</c:v>
+                  <c:v>4.29585</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.19536</c:v>
+                  <c:v>2.88973</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.947561</c:v>
+                  <c:v>0.695568</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.97417</c:v>
+                  <c:v>5.82322</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.1858</c:v>
+                  <c:v>2.74633</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.246711</c:v>
+                  <c:v>0.369067</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.95696</c:v>
+                  <c:v>7.15369</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.99571</c:v>
+                  <c:v>4.97066</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.25022</c:v>
+                  <c:v>2.72733</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.66251</c:v>
+                  <c:v>6.71035</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.84295</c:v>
+                  <c:v>3.60608</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.42276</c:v>
+                  <c:v>5.29976</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.56599</c:v>
+                  <c:v>2.6996</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.19166</c:v>
+                  <c:v>1.19022</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.144301</c:v>
+                  <c:v>0.1498</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.56784</c:v>
+                  <c:v>3.23664</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.17542</c:v>
+                  <c:v>1.34248</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.083088</c:v>
+                  <c:v>0.0683613</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.17692</c:v>
+                  <c:v>2.2413</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>5.37141</c:v>
+                  <c:v>5.44627</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.43001</c:v>
+                  <c:v>0.372132</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>8.21002</c:v>
+                  <c:v>7.81928</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1.10394</c:v>
+                  <c:v>0.961487</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.51926</c:v>
+                  <c:v>6.42921</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.87331</c:v>
+                  <c:v>1.69177</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.78272</c:v>
+                  <c:v>2.49642</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.48667</c:v>
+                  <c:v>1.14443</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.61621</c:v>
+                  <c:v>2.09017</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.67815</c:v>
+                  <c:v>2.84188</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.23636</c:v>
+                  <c:v>2.27039</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4.48902</c:v>
+                  <c:v>3.47867</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.43982</c:v>
+                  <c:v>2.60757</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7.82886</c:v>
+                  <c:v>6.37688</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.53934</c:v>
+                  <c:v>1.944</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.666921</c:v>
+                  <c:v>0.428382</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.17728</c:v>
+                  <c:v>3.69913</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.72534</c:v>
+                  <c:v>2.51221</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.66443</c:v>
+                  <c:v>2.54581</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>6.21421</c:v>
+                  <c:v>5.30125</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>6.04555</c:v>
+                  <c:v>6.39292</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.56155</c:v>
+                  <c:v>2.88318</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.87584</c:v>
+                  <c:v>1.8731</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.56751</c:v>
+                  <c:v>1.24423</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.01117</c:v>
+                  <c:v>3.63286</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.1029</c:v>
+                  <c:v>2.25646</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>5.57276</c:v>
+                  <c:v>5.80463</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.22683</c:v>
+                  <c:v>2.15837</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.98594</c:v>
+                  <c:v>2.32639</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>1.39631</c:v>
+                  <c:v>1.61552</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5.32131</c:v>
+                  <c:v>5.43825</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.5291</c:v>
+                  <c:v>1.41143</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.0052</c:v>
+                  <c:v>1.84157</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>4.34251</c:v>
+                  <c:v>4.46018</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.33165</c:v>
+                  <c:v>1.24486</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.352049</c:v>
+                  <c:v>0.398585</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.801775</c:v>
+                  <c:v>0.89391</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.43434</c:v>
+                  <c:v>4.47426</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.931328</c:v>
+                  <c:v>0.877088</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.42093</c:v>
+                  <c:v>1.40196</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.37815</c:v>
+                  <c:v>1.32541</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>8.29862</c:v>
+                  <c:v>7.81079</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.323714</c:v>
+                  <c:v>0.26854</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>10.3999</c:v>
+                  <c:v>10.5635</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.78518</c:v>
+                  <c:v>3.85696</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.95557</c:v>
+                  <c:v>1.99947</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.26681</c:v>
+                  <c:v>1.11225</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.446871</c:v>
+                  <c:v>0.529218</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.3381</c:v>
+                  <c:v>2.33854</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.50876</c:v>
+                  <c:v>2.2978</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4.24819</c:v>
+                  <c:v>4.09642</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.2953</c:v>
+                  <c:v>1.60019</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.92054</c:v>
+                  <c:v>1.95574</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.08371</c:v>
+                  <c:v>1.05166</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>9.220660000000001</c:v>
+                  <c:v>9.3978</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>8.37249</c:v>
+                  <c:v>7.98148</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.0568846</c:v>
+                  <c:v>0.0320105</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.80332</c:v>
+                  <c:v>1.75604</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.72074</c:v>
+                  <c:v>1.79324</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.85038</c:v>
+                  <c:v>1.96021</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.838306</c:v>
+                  <c:v>0.71341</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.434302</c:v>
+                  <c:v>0.355886</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>9.52888</c:v>
+                  <c:v>9.47526</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2.15216</c:v>
+                  <c:v>2.17906</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.618989</c:v>
+                  <c:v>0.634808</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2.39414</c:v>
+                  <c:v>2.20831</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>4.7617</c:v>
+                  <c:v>4.89738</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.82492</c:v>
+                  <c:v>1.87408</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>4.91688</c:v>
+                  <c:v>4.73529</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.56834</c:v>
+                  <c:v>1.59609</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.70664</c:v>
+                  <c:v>3.90102</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>8.13092</c:v>
+                  <c:v>8.31715</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.63244</c:v>
+                  <c:v>1.614</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>7.24367</c:v>
+                  <c:v>7.18162</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>4.41226</c:v>
+                  <c:v>4.30519</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>2.50765</c:v>
+                  <c:v>2.41824</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.41613</c:v>
+                  <c:v>2.36932</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4.24751</c:v>
+                  <c:v>3.95875</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.29018</c:v>
+                  <c:v>1.45476</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>6.46112</c:v>
+                  <c:v>6.6105</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.91013</c:v>
+                  <c:v>3.7552</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.814944</c:v>
+                  <c:v>0.669942</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.552469</c:v>
+                  <c:v>0.440966</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.32151</c:v>
+                  <c:v>1.08911</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.0319</c:v>
+                  <c:v>0.923786</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>8.61894</c:v>
+                  <c:v>7.9112</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6.83293</c:v>
+                  <c:v>7.15941</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.03885</c:v>
+                  <c:v>0.817272</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.80184</c:v>
+                  <c:v>4.47928</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.769609</c:v>
+                  <c:v>0.513476</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3.73419</c:v>
+                  <c:v>3.20203</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.70511</c:v>
+                  <c:v>1.49044</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.93206</c:v>
+                  <c:v>2.40243</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>6.45952</c:v>
+                  <c:v>6.81882</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.369008</c:v>
+                  <c:v>0.414788</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>8.47356</c:v>
+                  <c:v>8.292160000000001</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3.67096</c:v>
+                  <c:v>4.22452</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2.1071</c:v>
+                  <c:v>2.26319</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>3.83545</c:v>
+                  <c:v>3.99599</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>3.382</c:v>
+                  <c:v>3.36119</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>2.66874</c:v>
+                  <c:v>2.60964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3299,11 +3299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="616935456"/>
-        <c:axId val="619352320"/>
+        <c:axId val="-2133252560"/>
+        <c:axId val="-2133250512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="616935456"/>
+        <c:axId val="-2133252560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3323,6 +3323,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3359,15 +3360,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619352320"/>
+        <c:crossAx val="-2133250512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="619352320"/>
+        <c:axId val="-2133250512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="15.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3421,7 +3422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616935456"/>
+        <c:crossAx val="-2133252560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4382,751 +4383,751 @@
                 <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="249"/>
                 <c:pt idx="0">
-                  <c:v>0.728633</c:v>
+                  <c:v>0.670984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.83351</c:v>
+                  <c:v>1.77055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.60529</c:v>
+                  <c:v>1.11798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7531</c:v>
+                  <c:v>0.387075</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.81975</c:v>
+                  <c:v>0.204246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.5448</c:v>
+                  <c:v>3.69425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.72541</c:v>
+                  <c:v>1.69935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.34433</c:v>
+                  <c:v>9.877370000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.56291</c:v>
+                  <c:v>4.52249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.96465</c:v>
+                  <c:v>1.05577</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.512871</c:v>
+                  <c:v>0.821934</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.62495</c:v>
+                  <c:v>2.42249</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.69449</c:v>
+                  <c:v>2.68137</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.69218</c:v>
+                  <c:v>2.21332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.247101</c:v>
+                  <c:v>0.634652</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.815884</c:v>
+                  <c:v>0.747497</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12742</c:v>
+                  <c:v>0.209111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.29754</c:v>
+                  <c:v>4.70009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.730354</c:v>
+                  <c:v>0.863038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.548224</c:v>
+                  <c:v>0.651454</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.58615</c:v>
+                  <c:v>2.38033</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.331424</c:v>
+                  <c:v>0.401429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.365635</c:v>
+                  <c:v>0.403317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.15548</c:v>
+                  <c:v>3.2066</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.07823</c:v>
+                  <c:v>2.12494</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.15913</c:v>
+                  <c:v>1.223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.30414</c:v>
+                  <c:v>1.4018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.91939</c:v>
+                  <c:v>1.84472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.28398</c:v>
+                  <c:v>2.43209</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.94076</c:v>
+                  <c:v>2.08393</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.269377</c:v>
+                  <c:v>0.292878</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.14505</c:v>
+                  <c:v>1.20591</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.619767</c:v>
+                  <c:v>0.648984</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.78291</c:v>
+                  <c:v>1.83595</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.649303</c:v>
+                  <c:v>0.644336</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.16711</c:v>
+                  <c:v>1.12296</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.0298944</c:v>
+                  <c:v>0.0438933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0523</c:v>
+                  <c:v>1.9969</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.02107</c:v>
+                  <c:v>2.75968</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.19378</c:v>
+                  <c:v>2.20364</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.22597</c:v>
+                  <c:v>3.06665</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.75281</c:v>
+                  <c:v>4.18964</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.57856</c:v>
+                  <c:v>7.28745</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.60811</c:v>
+                  <c:v>2.54074</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.292898</c:v>
+                  <c:v>0.439371</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.567061</c:v>
+                  <c:v>0.354992</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.10043</c:v>
+                  <c:v>1.97065</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.664074</c:v>
+                  <c:v>0.837031</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.07972</c:v>
+                  <c:v>1.70989</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.105636</c:v>
+                  <c:v>0.254664</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.18141</c:v>
+                  <c:v>3.24129</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.180345</c:v>
+                  <c:v>0.103364</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.17767</c:v>
+                  <c:v>5.54042</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.11139</c:v>
+                  <c:v>0.157997</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.893629</c:v>
+                  <c:v>0.8595</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.7944</c:v>
+                  <c:v>3.74715</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.16697</c:v>
+                  <c:v>0.935897</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.48233</c:v>
+                  <c:v>1.97992</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.30773</c:v>
+                  <c:v>1.0572</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.50998</c:v>
+                  <c:v>2.87081</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.331786</c:v>
+                  <c:v>0.183217</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.773795</c:v>
+                  <c:v>1.17005</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.32745</c:v>
+                  <c:v>3.50993</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.94447</c:v>
+                  <c:v>1.75044</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.30368</c:v>
+                  <c:v>1.80584</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.140883</c:v>
+                  <c:v>0.230443</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.38735</c:v>
+                  <c:v>1.01826</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.01574</c:v>
+                  <c:v>0.944019</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.38738</c:v>
+                  <c:v>1.55298</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.52832</c:v>
+                  <c:v>1.48402</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.73939</c:v>
+                  <c:v>1.81625</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.95368</c:v>
+                  <c:v>2.79995</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.63526</c:v>
+                  <c:v>0.606259</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.889878</c:v>
+                  <c:v>0.985411</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9931</c:v>
+                  <c:v>2.06121</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.274373</c:v>
+                  <c:v>0.279945</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.51403</c:v>
+                  <c:v>1.51432</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.162534</c:v>
+                  <c:v>0.143063</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.25138</c:v>
+                  <c:v>2.2866</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.394343</c:v>
+                  <c:v>0.420323</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.773426</c:v>
+                  <c:v>0.787229</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.65832</c:v>
+                  <c:v>2.62505</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.979467</c:v>
+                  <c:v>1.00306</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.887389</c:v>
+                  <c:v>0.848262</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.23578</c:v>
+                  <c:v>2.26873</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.96929</c:v>
+                  <c:v>2.83805</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.199599</c:v>
+                  <c:v>0.139157</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.19242</c:v>
+                  <c:v>3.82968</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.38603</c:v>
+                  <c:v>1.11452</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.902361</c:v>
+                  <c:v>0.713173</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.81742</c:v>
+                  <c:v>1.48716</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.405746</c:v>
+                  <c:v>0.685828</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.874212</c:v>
+                  <c:v>1.011</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.623733</c:v>
+                  <c:v>0.74975</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.522286</c:v>
+                  <c:v>0.673757</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.00973</c:v>
+                  <c:v>2.14075</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.29967</c:v>
+                  <c:v>2.2465</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.32857</c:v>
+                  <c:v>1.18805</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.29135</c:v>
+                  <c:v>4.50614</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.423974</c:v>
+                  <c:v>0.380688</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0341346</c:v>
+                  <c:v>0.0474964</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3.80596</c:v>
+                  <c:v>3.61655</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.06343</c:v>
+                  <c:v>2.05246</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.9004</c:v>
+                  <c:v>1.63116</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.51537</c:v>
+                  <c:v>3.96628</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.024466</c:v>
+                  <c:v>0.0485918</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.05152</c:v>
+                  <c:v>1.65312</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.86163</c:v>
+                  <c:v>2.90563</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.44041</c:v>
+                  <c:v>2.08038</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.94626</c:v>
+                  <c:v>2.31553</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.14863</c:v>
+                  <c:v>0.967273</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.625303</c:v>
+                  <c:v>0.778936</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>8.15368</c:v>
+                  <c:v>7.72632</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.59197</c:v>
+                  <c:v>5.39013</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.64782</c:v>
+                  <c:v>2.18049</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.51447</c:v>
+                  <c:v>1.84502</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.32758</c:v>
+                  <c:v>0.49712</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>5.88005</c:v>
+                  <c:v>5.07443</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.09175</c:v>
+                  <c:v>0.863057</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.0801366</c:v>
+                  <c:v>0.20683</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.17124</c:v>
+                  <c:v>2.01989</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.22552</c:v>
+                  <c:v>1.95228</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.90008</c:v>
+                  <c:v>2.38384</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.0694864</c:v>
+                  <c:v>0.145483</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.78926</c:v>
+                  <c:v>1.5251</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.95305</c:v>
+                  <c:v>1.76919</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.81247</c:v>
+                  <c:v>3.40694</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.12158</c:v>
+                  <c:v>4.67145</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.255884</c:v>
+                  <c:v>0.486174</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.324504</c:v>
+                  <c:v>0.365785</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.12162</c:v>
+                  <c:v>0.809462</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.49602</c:v>
+                  <c:v>1.21645</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2.49488</c:v>
+                  <c:v>2.02547</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.04901</c:v>
+                  <c:v>2.46818</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.40009</c:v>
+                  <c:v>1.6878</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0889473</c:v>
+                  <c:v>0.145465</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.16298</c:v>
+                  <c:v>0.208474</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.06163</c:v>
+                  <c:v>8.096970000000001</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.689908</c:v>
+                  <c:v>0.687015</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.05073</c:v>
+                  <c:v>3.04901</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.10873</c:v>
+                  <c:v>0.113864</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2.6156</c:v>
+                  <c:v>2.61059</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.439563</c:v>
+                  <c:v>0.450391</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>1.75645</c:v>
+                  <c:v>1.69743</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>6.2469</c:v>
+                  <c:v>5.9369</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.37688</c:v>
+                  <c:v>1.54463</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2.02883</c:v>
+                  <c:v>2.18337</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0341633</c:v>
+                  <c:v>0.0275971</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2.02674</c:v>
+                  <c:v>2.05585</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.489266</c:v>
+                  <c:v>0.460396</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>8.27085</c:v>
+                  <c:v>7.85058</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.578378</c:v>
+                  <c:v>0.446742</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>1.18821</c:v>
+                  <c:v>1.19111</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.53588</c:v>
+                  <c:v>2.79177</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.65199</c:v>
+                  <c:v>2.7787</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>5.57763</c:v>
+                  <c:v>5.22824</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.8839</c:v>
+                  <c:v>6.10179</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.67503</c:v>
+                  <c:v>3.02425</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>5.31375</c:v>
+                  <c:v>4.22189</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.89899</c:v>
+                  <c:v>3.47249</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>5.4881</c:v>
+                  <c:v>4.44162</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.0716327</c:v>
+                  <c:v>0.073038</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.0628828</c:v>
+                  <c:v>0.00827357</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.20953</c:v>
+                  <c:v>3.26024</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.15904</c:v>
+                  <c:v>3.88969</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.778606</c:v>
+                  <c:v>1.02968</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.94206</c:v>
+                  <c:v>1.79498</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.32172</c:v>
+                  <c:v>1.47025</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.0666451</c:v>
+                  <c:v>0.103369</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.57961</c:v>
+                  <c:v>0.557711</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.6125</c:v>
+                  <c:v>2.38003</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.0651837</c:v>
+                  <c:v>0.0493056</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4.13339</c:v>
+                  <c:v>4.01695</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.94567</c:v>
+                  <c:v>1.96357</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>13.4902</c:v>
+                  <c:v>12.923</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.58644</c:v>
+                  <c:v>1.32847</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.34183</c:v>
+                  <c:v>1.79017</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.88569</c:v>
+                  <c:v>2.24939</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.709918</c:v>
+                  <c:v>0.343534</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.189615</c:v>
+                  <c:v>0.382436</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>5.85913</c:v>
+                  <c:v>6.42939</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.39784</c:v>
+                  <c:v>1.74062</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.60852</c:v>
+                  <c:v>1.38497</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.37535</c:v>
+                  <c:v>1.95855</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4.3674</c:v>
+                  <c:v>4.53696</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>6.27909</c:v>
+                  <c:v>5.51436</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.86857</c:v>
+                  <c:v>2.28154</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.357571</c:v>
+                  <c:v>0.203733</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.369716</c:v>
+                  <c:v>0.545403</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.997294</c:v>
+                  <c:v>0.773949</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.244105</c:v>
+                  <c:v>0.345818</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.63031</c:v>
+                  <c:v>1.81296</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.34543</c:v>
+                  <c:v>3.38468</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.716636</c:v>
+                  <c:v>0.69849</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>6.84721</c:v>
+                  <c:v>6.62586</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.46141</c:v>
+                  <c:v>1.30018</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.14344</c:v>
+                  <c:v>1.15542</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.210664</c:v>
+                  <c:v>0.131802</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.426005</c:v>
+                  <c:v>0.453867</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.3219</c:v>
+                  <c:v>2.48542</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.88804</c:v>
+                  <c:v>1.90505</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.44951</c:v>
+                  <c:v>3.3299</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.165165</c:v>
+                  <c:v>0.138086</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.193598</c:v>
+                  <c:v>0.246211</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.686413</c:v>
+                  <c:v>0.757515</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.178417</c:v>
+                  <c:v>0.147979</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.91902</c:v>
+                  <c:v>1.73232</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.0467478</c:v>
+                  <c:v>0.0918373</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.66912</c:v>
+                  <c:v>3.80103</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2.18207</c:v>
+                  <c:v>2.12197</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.316691</c:v>
+                  <c:v>0.353057</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.20143</c:v>
+                  <c:v>1.11207</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.46465</c:v>
+                  <c:v>1.40525</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.0676348</c:v>
+                  <c:v>0.0938867</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.251584</c:v>
+                  <c:v>0.298518</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.79134</c:v>
+                  <c:v>3.51029</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.835222</c:v>
+                  <c:v>0.636771</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.792614</c:v>
+                  <c:v>0.890666</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.17553</c:v>
+                  <c:v>2.26591</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.405486</c:v>
+                  <c:v>0.359769</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>2.59855</c:v>
+                  <c:v>2.62148</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>6.13034</c:v>
+                  <c:v>6.27929</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>2.01889</c:v>
+                  <c:v>1.85537</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.4945</c:v>
+                  <c:v>1.60242</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.00693124</c:v>
+                  <c:v>0.0133578</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>4.52515</c:v>
+                  <c:v>4.16979</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.79437</c:v>
+                  <c:v>1.60814</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>5.17615</c:v>
+                  <c:v>4.54457</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.30277</c:v>
+                  <c:v>2.73648</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>4.441</c:v>
+                  <c:v>3.87226</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.8761</c:v>
+                  <c:v>2.71939</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.038952</c:v>
+                  <c:v>0.0480557</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.41671</c:v>
+                  <c:v>0.643452</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.940428</c:v>
+                  <c:v>0.665097</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.93097</c:v>
+                  <c:v>1.75673</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>10.2141</c:v>
+                  <c:v>9.53974</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.635616</c:v>
+                  <c:v>0.355968</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>4.47824</c:v>
+                  <c:v>4.49141</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.17634</c:v>
+                  <c:v>1.04616</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.78229</c:v>
+                  <c:v>2.87127</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.199121</c:v>
+                  <c:v>0.318734</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>5.2127</c:v>
+                  <c:v>4.49311</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.228451</c:v>
+                  <c:v>0.428621</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2.37327</c:v>
+                  <c:v>2.41031</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.577025</c:v>
+                  <c:v>0.571792</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.64122</c:v>
+                  <c:v>0.639964</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>6.69793</c:v>
+                  <c:v>7.0019</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>4.76212</c:v>
+                  <c:v>4.52812</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.552287</c:v>
+                  <c:v>0.409239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,11 +6682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="657987520"/>
-        <c:axId val="658024656"/>
+        <c:axId val="-2104410640"/>
+        <c:axId val="-2104407888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="657987520"/>
+        <c:axId val="-2104410640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6741,15 +6742,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658024656"/>
+        <c:crossAx val="-2104407888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658024656"/>
+        <c:axId val="-2104407888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10.0"/>
+          <c:max val="15.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6803,7 +6804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657987520"/>
+        <c:crossAx val="-2104410640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8333,8 +8334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8355,7 +8356,7 @@
         <v>1477010443050000</v>
       </c>
       <c r="B2" s="1">
-        <v>74.773499999999999</v>
+        <v>8.2190600000000007</v>
       </c>
       <c r="C2" s="1">
         <v>7.8150000000000004</v>
@@ -8366,7 +8367,7 @@
         <v>1477010443150000</v>
       </c>
       <c r="B3" s="1">
-        <v>0.241672</v>
+        <v>1.7563500000000001</v>
       </c>
       <c r="C3" s="1">
         <v>7.8150000000000004</v>
@@ -8377,7 +8378,7 @@
         <v>1477010443250000</v>
       </c>
       <c r="B4" s="1">
-        <v>2.3658199999999998</v>
+        <v>1.83822</v>
       </c>
       <c r="C4" s="1">
         <v>7.8150000000000004</v>
@@ -8388,7 +8389,7 @@
         <v>1477010443350000</v>
       </c>
       <c r="B5" s="1">
-        <v>10.759600000000001</v>
+        <v>5.8782800000000002</v>
       </c>
       <c r="C5" s="1">
         <v>7.8150000000000004</v>
@@ -8399,7 +8400,7 @@
         <v>1477010443450000</v>
       </c>
       <c r="B6" s="1">
-        <v>1.81046</v>
+        <v>1.09338</v>
       </c>
       <c r="C6" s="1">
         <v>7.8150000000000004</v>
@@ -8410,7 +8411,7 @@
         <v>1477010443550000</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0089900000000001</v>
+        <v>1.6774</v>
       </c>
       <c r="C7" s="1">
         <v>7.8150000000000004</v>
@@ -8421,7 +8422,7 @@
         <v>1477010443650000</v>
       </c>
       <c r="B8" s="1">
-        <v>3.7078000000000002</v>
+        <v>2.7901500000000001</v>
       </c>
       <c r="C8" s="1">
         <v>7.8150000000000004</v>
@@ -8432,7 +8433,7 @@
         <v>1477010443750000</v>
       </c>
       <c r="B9" s="1">
-        <v>2.1638899999999999</v>
+        <v>1.1552500000000001</v>
       </c>
       <c r="C9" s="1">
         <v>7.8150000000000004</v>
@@ -8443,7 +8444,7 @@
         <v>1477010443850000</v>
       </c>
       <c r="B10" s="1">
-        <v>3.75135</v>
+        <v>3.0972499999999998</v>
       </c>
       <c r="C10" s="1">
         <v>7.8150000000000004</v>
@@ -8454,7 +8455,7 @@
         <v>1477010443950000</v>
       </c>
       <c r="B11" s="1">
-        <v>1.4113500000000001</v>
+        <v>1.01925</v>
       </c>
       <c r="C11" s="1">
         <v>7.8150000000000004</v>
@@ -8465,7 +8466,7 @@
         <v>1477010444050000</v>
       </c>
       <c r="B12" s="1">
-        <v>2.99634</v>
+        <v>3.17543</v>
       </c>
       <c r="C12" s="1">
         <v>7.8150000000000004</v>
@@ -8476,7 +8477,7 @@
         <v>1477010444150000</v>
       </c>
       <c r="B13" s="1">
-        <v>3.06786</v>
+        <v>2.2227600000000001</v>
       </c>
       <c r="C13" s="1">
         <v>7.8150000000000004</v>
@@ -8487,7 +8488,7 @@
         <v>1477010444250000</v>
       </c>
       <c r="B14" s="1">
-        <v>4.4351399999999996</v>
+        <v>4.0373999999999999</v>
       </c>
       <c r="C14" s="1">
         <v>7.8150000000000004</v>
@@ -8498,7 +8499,7 @@
         <v>1477010444350000</v>
       </c>
       <c r="B15" s="1">
-        <v>3.5200200000000001</v>
+        <v>3.9485800000000002</v>
       </c>
       <c r="C15" s="1">
         <v>7.8150000000000004</v>
@@ -8509,7 +8510,7 @@
         <v>1477010444450000</v>
       </c>
       <c r="B16" s="1">
-        <v>3.9610300000000001</v>
+        <v>3.5982699999999999</v>
       </c>
       <c r="C16" s="1">
         <v>7.8150000000000004</v>
@@ -8520,7 +8521,7 @@
         <v>1477010444550000</v>
       </c>
       <c r="B17" s="1">
-        <v>6.3142100000000001</v>
+        <v>6.1477199999999996</v>
       </c>
       <c r="C17" s="1">
         <v>7.8150000000000004</v>
@@ -8531,7 +8532,7 @@
         <v>1477010444650000</v>
       </c>
       <c r="B18" s="1">
-        <v>4.6490900000000002</v>
+        <v>5.1362199999999998</v>
       </c>
       <c r="C18" s="1">
         <v>7.8150000000000004</v>
@@ -8542,7 +8543,7 @@
         <v>1477010444750000</v>
       </c>
       <c r="B19" s="1">
-        <v>2.18188</v>
+        <v>2.4140999999999999</v>
       </c>
       <c r="C19" s="1">
         <v>7.8150000000000004</v>
@@ -8553,7 +8554,7 @@
         <v>1477010444850000</v>
       </c>
       <c r="B20" s="1">
-        <v>3.76546</v>
+        <v>3.8655599999999999</v>
       </c>
       <c r="C20" s="1">
         <v>7.8150000000000004</v>
@@ -8564,7 +8565,7 @@
         <v>1477010444950000</v>
       </c>
       <c r="B21" s="1">
-        <v>4.70174</v>
+        <v>4.5743</v>
       </c>
       <c r="C21" s="1">
         <v>7.8150000000000004</v>
@@ -8575,7 +8576,7 @@
         <v>1477010445050000</v>
       </c>
       <c r="B22" s="1">
-        <v>1.2046600000000001</v>
+        <v>1.15622</v>
       </c>
       <c r="C22" s="1">
         <v>7.8150000000000004</v>
@@ -8586,7 +8587,7 @@
         <v>1477010445150000</v>
       </c>
       <c r="B23" s="1">
-        <v>3.05084</v>
+        <v>2.5663999999999998</v>
       </c>
       <c r="C23" s="1">
         <v>7.8150000000000004</v>
@@ -8597,7 +8598,7 @@
         <v>1477010445250000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.59026599999999996</v>
+        <v>0.67193400000000003</v>
       </c>
       <c r="C24" s="1">
         <v>7.8150000000000004</v>
@@ -8608,7 +8609,7 @@
         <v>1477010445350000</v>
       </c>
       <c r="B25" s="1">
-        <v>1.93743</v>
+        <v>1.71024</v>
       </c>
       <c r="C25" s="1">
         <v>7.8150000000000004</v>
@@ -8619,7 +8620,7 @@
         <v>1477010445450000</v>
       </c>
       <c r="B26" s="1">
-        <v>1.89436</v>
+        <v>2.08908</v>
       </c>
       <c r="C26" s="1">
         <v>7.8150000000000004</v>
@@ -8630,7 +8631,7 @@
         <v>1477010445550000</v>
       </c>
       <c r="B27" s="1">
-        <v>14.2652</v>
+        <v>14.0335</v>
       </c>
       <c r="C27" s="1">
         <v>7.8150000000000004</v>
@@ -8641,7 +8642,7 @@
         <v>1477010445650000</v>
       </c>
       <c r="B28" s="1">
-        <v>1.2522899999999999</v>
+        <v>1.00918</v>
       </c>
       <c r="C28" s="1">
         <v>7.8150000000000004</v>
@@ -8652,7 +8653,7 @@
         <v>1477010445750000</v>
       </c>
       <c r="B29" s="1">
-        <v>1.06213</v>
+        <v>1.0246299999999999</v>
       </c>
       <c r="C29" s="1">
         <v>7.8150000000000004</v>
@@ -8663,7 +8664,7 @@
         <v>1477010445850000</v>
       </c>
       <c r="B30" s="1">
-        <v>2.6046900000000002</v>
+        <v>2.7881499999999999</v>
       </c>
       <c r="C30" s="1">
         <v>7.8150000000000004</v>
@@ -8674,7 +8675,7 @@
         <v>1477010445950000</v>
       </c>
       <c r="B31" s="1">
-        <v>1.4557199999999999</v>
+        <v>1.6371899999999999</v>
       </c>
       <c r="C31" s="1">
         <v>7.8150000000000004</v>
@@ -8685,7 +8686,7 @@
         <v>1477010446050000</v>
       </c>
       <c r="B32" s="1">
-        <v>2.0329000000000002</v>
+        <v>1.75539</v>
       </c>
       <c r="C32" s="1">
         <v>7.8150000000000004</v>
@@ -8696,7 +8697,7 @@
         <v>1477010446150000</v>
       </c>
       <c r="B33" s="1">
-        <v>2.06765</v>
+        <v>2.0322800000000001</v>
       </c>
       <c r="C33" s="1">
         <v>7.8150000000000004</v>
@@ -8707,7 +8708,7 @@
         <v>1477010446250000</v>
       </c>
       <c r="B34" s="1">
-        <v>0.181065</v>
+        <v>0.17912800000000001</v>
       </c>
       <c r="C34" s="1">
         <v>7.8150000000000004</v>
@@ -8718,7 +8719,7 @@
         <v>1477010446350000</v>
       </c>
       <c r="B35" s="1">
-        <v>7.0589899999999997</v>
+        <v>6.9279900000000003</v>
       </c>
       <c r="C35" s="1">
         <v>7.8150000000000004</v>
@@ -8729,7 +8730,7 @@
         <v>1477010446450000</v>
       </c>
       <c r="B36" s="1">
-        <v>3.1456300000000001</v>
+        <v>2.6573500000000001</v>
       </c>
       <c r="C36" s="1">
         <v>7.8150000000000004</v>
@@ -8740,7 +8741,7 @@
         <v>1477010446550000</v>
       </c>
       <c r="B37" s="1">
-        <v>5.1667899999999998</v>
+        <v>4.4183399999999997</v>
       </c>
       <c r="C37" s="1">
         <v>7.8150000000000004</v>
@@ -8751,7 +8752,7 @@
         <v>1477010446650000</v>
       </c>
       <c r="B38" s="1">
-        <v>3.06264</v>
+        <v>2.9783200000000001</v>
       </c>
       <c r="C38" s="1">
         <v>7.8150000000000004</v>
@@ -8762,7 +8763,7 @@
         <v>1477010446750000</v>
       </c>
       <c r="B39" s="1">
-        <v>0.76489499999999999</v>
+        <v>1.0100899999999999</v>
       </c>
       <c r="C39" s="1">
         <v>7.8150000000000004</v>
@@ -8773,7 +8774,7 @@
         <v>1477010446850000</v>
       </c>
       <c r="B40" s="1">
-        <v>0.81155299999999997</v>
+        <v>0.89286399999999999</v>
       </c>
       <c r="C40" s="1">
         <v>7.8150000000000004</v>
@@ -8784,7 +8785,7 @@
         <v>1477010446950000</v>
       </c>
       <c r="B41" s="1">
-        <v>0.102259</v>
+        <v>7.5738299999999995E-2</v>
       </c>
       <c r="C41" s="1">
         <v>7.8150000000000004</v>
@@ -8795,7 +8796,7 @@
         <v>1477010447050000</v>
       </c>
       <c r="B42" s="1">
-        <v>5.2118599999999997</v>
+        <v>4.9197899999999999</v>
       </c>
       <c r="C42" s="1">
         <v>7.8150000000000004</v>
@@ -8806,7 +8807,7 @@
         <v>1477010447150000</v>
       </c>
       <c r="B43" s="1">
-        <v>0.84320399999999995</v>
+        <v>0.502722</v>
       </c>
       <c r="C43" s="1">
         <v>7.8150000000000004</v>
@@ -8817,7 +8818,7 @@
         <v>1477010447250000</v>
       </c>
       <c r="B44" s="1">
-        <v>3.23306</v>
+        <v>2.8335599999999999</v>
       </c>
       <c r="C44" s="1">
         <v>7.8150000000000004</v>
@@ -8828,7 +8829,7 @@
         <v>1477010447350000</v>
       </c>
       <c r="B45" s="1">
-        <v>1.72224</v>
+        <v>1.3127899999999999</v>
       </c>
       <c r="C45" s="1">
         <v>7.8150000000000004</v>
@@ -8839,7 +8840,7 @@
         <v>1477010447450000</v>
       </c>
       <c r="B46" s="1">
-        <v>0.51904799999999995</v>
+        <v>0.63288299999999997</v>
       </c>
       <c r="C46" s="1">
         <v>7.8150000000000004</v>
@@ -8850,7 +8851,7 @@
         <v>1477010447550000</v>
       </c>
       <c r="B47" s="1">
-        <v>1.6377299999999999</v>
+        <v>1.6211800000000001</v>
       </c>
       <c r="C47" s="1">
         <v>7.8150000000000004</v>
@@ -8861,7 +8862,7 @@
         <v>1477010447650000</v>
       </c>
       <c r="B48" s="1">
-        <v>4.2012799999999997</v>
+        <v>4.8039500000000004</v>
       </c>
       <c r="C48" s="1">
         <v>7.8150000000000004</v>
@@ -8872,7 +8873,7 @@
         <v>1477010447750000</v>
       </c>
       <c r="B49" s="1">
-        <v>1.45896</v>
+        <v>1.39598</v>
       </c>
       <c r="C49" s="1">
         <v>7.8150000000000004</v>
@@ -8883,7 +8884,7 @@
         <v>1477010447850000</v>
       </c>
       <c r="B50" s="1">
-        <v>2.1195400000000002</v>
+        <v>2.5078200000000002</v>
       </c>
       <c r="C50" s="1">
         <v>7.8150000000000004</v>
@@ -8894,7 +8895,7 @@
         <v>1477010447950000</v>
       </c>
       <c r="B51" s="1">
-        <v>6.0915999999999997</v>
+        <v>6.2851999999999997</v>
       </c>
       <c r="C51" s="1">
         <v>7.8150000000000004</v>
@@ -8905,7 +8906,7 @@
         <v>1477010448050000</v>
       </c>
       <c r="B52" s="1">
-        <v>4.6210399999999998</v>
+        <v>4.1963900000000001</v>
       </c>
       <c r="C52" s="1">
         <v>7.8150000000000004</v>
@@ -8916,7 +8917,7 @@
         <v>1477010448150000</v>
       </c>
       <c r="B53" s="1">
-        <v>2.4879600000000002</v>
+        <v>2.3170600000000001</v>
       </c>
       <c r="C53" s="1">
         <v>7.8150000000000004</v>
@@ -8927,7 +8928,7 @@
         <v>1477010448250000</v>
       </c>
       <c r="B54" s="1">
-        <v>6.1840099999999998</v>
+        <v>5.5463300000000002</v>
       </c>
       <c r="C54" s="1">
         <v>7.8150000000000004</v>
@@ -8938,7 +8939,7 @@
         <v>1477010448350000</v>
       </c>
       <c r="B55" s="1">
-        <v>0.564747</v>
+        <v>0.347524</v>
       </c>
       <c r="C55" s="1">
         <v>7.8150000000000004</v>
@@ -8949,7 +8950,7 @@
         <v>1477010448450000</v>
       </c>
       <c r="B56" s="1">
-        <v>2.35684</v>
+        <v>1.9366699999999999</v>
       </c>
       <c r="C56" s="1">
         <v>7.8150000000000004</v>
@@ -8960,7 +8961,7 @@
         <v>1477010448550000</v>
       </c>
       <c r="B57" s="1">
-        <v>0.51733200000000001</v>
+        <v>0.33215899999999998</v>
       </c>
       <c r="C57" s="1">
         <v>7.8150000000000004</v>
@@ -8971,7 +8972,7 @@
         <v>1477010448650000</v>
       </c>
       <c r="B58" s="1">
-        <v>3.7572800000000002</v>
+        <v>2.9691000000000001</v>
       </c>
       <c r="C58" s="1">
         <v>7.8150000000000004</v>
@@ -8982,7 +8983,7 @@
         <v>1477010448750000</v>
       </c>
       <c r="B59" s="1">
-        <v>11.1374</v>
+        <v>11.276</v>
       </c>
       <c r="C59" s="1">
         <v>7.8150000000000004</v>
@@ -8993,7 +8994,7 @@
         <v>1477010448850000</v>
       </c>
       <c r="B60" s="1">
-        <v>2.56284</v>
+        <v>1.9379900000000001</v>
       </c>
       <c r="C60" s="1">
         <v>7.8150000000000004</v>
@@ -9004,7 +9005,7 @@
         <v>1477010448950000</v>
       </c>
       <c r="B61" s="1">
-        <v>0.99760899999999997</v>
+        <v>0.69875600000000004</v>
       </c>
       <c r="C61" s="1">
         <v>7.8150000000000004</v>
@@ -9015,7 +9016,7 @@
         <v>1477010449050000</v>
       </c>
       <c r="B62" s="1">
-        <v>1.4639599999999999</v>
+        <v>1.1378900000000001</v>
       </c>
       <c r="C62" s="1">
         <v>7.8150000000000004</v>
@@ -9026,7 +9027,7 @@
         <v>1477010449150000</v>
       </c>
       <c r="B63" s="1">
-        <v>8.9916900000000002</v>
+        <v>9.5294299999999996</v>
       </c>
       <c r="C63" s="1">
         <v>7.8150000000000004</v>
@@ -9037,7 +9038,7 @@
         <v>1477010449250000</v>
       </c>
       <c r="B64" s="1">
-        <v>5.3151900000000003</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="C64" s="1">
         <v>7.8150000000000004</v>
@@ -9048,7 +9049,7 @@
         <v>1477010449350000</v>
       </c>
       <c r="B65" s="1">
-        <v>1.5101100000000001</v>
+        <v>1.1747700000000001</v>
       </c>
       <c r="C65" s="1">
         <v>7.8150000000000004</v>
@@ -9059,7 +9060,7 @@
         <v>1477010449450000</v>
       </c>
       <c r="B66" s="1">
-        <v>2.4999099999999999</v>
+        <v>2.0368900000000001</v>
       </c>
       <c r="C66" s="1">
         <v>7.8150000000000004</v>
@@ -9070,7 +9071,7 @@
         <v>1477010449550000</v>
       </c>
       <c r="B67" s="1">
-        <v>8.1378400000000006</v>
+        <v>7.5257100000000001</v>
       </c>
       <c r="C67" s="1">
         <v>7.8150000000000004</v>
@@ -9081,7 +9082,7 @@
         <v>1477010449650000</v>
       </c>
       <c r="B68" s="1">
-        <v>1.8832199999999999</v>
+        <v>1.3188299999999999</v>
       </c>
       <c r="C68" s="1">
         <v>7.8150000000000004</v>
@@ -9092,7 +9093,7 @@
         <v>1477010449750000</v>
       </c>
       <c r="B69" s="1">
-        <v>3.2477800000000001</v>
+        <v>3.64757</v>
       </c>
       <c r="C69" s="1">
         <v>7.8150000000000004</v>
@@ -9103,7 +9104,7 @@
         <v>1477010449850000</v>
       </c>
       <c r="B70" s="1">
-        <v>2.79406</v>
+        <v>3.4201100000000002</v>
       </c>
       <c r="C70" s="1">
         <v>7.8150000000000004</v>
@@ -9114,7 +9115,7 @@
         <v>1477010449950000</v>
       </c>
       <c r="B71" s="1">
-        <v>10.803100000000001</v>
+        <v>9.9953699999999994</v>
       </c>
       <c r="C71" s="1">
         <v>7.8150000000000004</v>
@@ -9125,7 +9126,7 @@
         <v>1477010450050000</v>
       </c>
       <c r="B72" s="1">
-        <v>3.1772300000000002</v>
+        <v>2.6154299999999999</v>
       </c>
       <c r="C72" s="1">
         <v>7.8150000000000004</v>
@@ -9136,7 +9137,7 @@
         <v>1477010450150000</v>
       </c>
       <c r="B73" s="1">
-        <v>6.4996200000000002</v>
+        <v>7.5423900000000001</v>
       </c>
       <c r="C73" s="1">
         <v>7.8150000000000004</v>
@@ -9147,7 +9148,7 @@
         <v>1477010450250000</v>
       </c>
       <c r="B74" s="1">
-        <v>1.41957</v>
+        <v>1.3225</v>
       </c>
       <c r="C74" s="1">
         <v>7.8150000000000004</v>
@@ -9158,7 +9159,7 @@
         <v>1477010450350000</v>
       </c>
       <c r="B75" s="1">
-        <v>1.0980099999999999</v>
+        <v>1.54453</v>
       </c>
       <c r="C75" s="1">
         <v>7.8150000000000004</v>
@@ -9169,7 +9170,7 @@
         <v>1477010450450000</v>
       </c>
       <c r="B76" s="1">
-        <v>0.31512099999999998</v>
+        <v>0.44473499999999999</v>
       </c>
       <c r="C76" s="1">
         <v>7.8150000000000004</v>
@@ -9180,7 +9181,7 @@
         <v>1477010450550000</v>
       </c>
       <c r="B77" s="1">
-        <v>2.3195399999999999</v>
+        <v>2.10494</v>
       </c>
       <c r="C77" s="1">
         <v>7.8150000000000004</v>
@@ -9191,7 +9192,7 @@
         <v>1477010450650000</v>
       </c>
       <c r="B78" s="1">
-        <v>1.83134</v>
+        <v>1.87022</v>
       </c>
       <c r="C78" s="1">
         <v>7.8150000000000004</v>
@@ -9202,7 +9203,7 @@
         <v>1477010450750000</v>
       </c>
       <c r="B79" s="1">
-        <v>2.9388800000000002</v>
+        <v>3.4647899999999998</v>
       </c>
       <c r="C79" s="1">
         <v>7.8150000000000004</v>
@@ -9213,7 +9214,7 @@
         <v>1477010450850000</v>
       </c>
       <c r="B80" s="1">
-        <v>1.0570900000000001</v>
+        <v>0.98959299999999994</v>
       </c>
       <c r="C80" s="1">
         <v>7.8150000000000004</v>
@@ -9224,7 +9225,7 @@
         <v>1477010450950000</v>
       </c>
       <c r="B81" s="1">
-        <v>1.1966600000000001</v>
+        <v>1.13395</v>
       </c>
       <c r="C81" s="1">
         <v>7.8150000000000004</v>
@@ -9235,7 +9236,7 @@
         <v>1477010451050000</v>
       </c>
       <c r="B82" s="1">
-        <v>3.8593000000000002</v>
+        <v>3.9136500000000001</v>
       </c>
       <c r="C82" s="1">
         <v>7.8150000000000004</v>
@@ -9246,7 +9247,7 @@
         <v>1477010451150000</v>
       </c>
       <c r="B83" s="1">
-        <v>4.9457199999999997</v>
+        <v>5.2750500000000002</v>
       </c>
       <c r="C83" s="1">
         <v>7.8150000000000004</v>
@@ -9257,7 +9258,7 @@
         <v>1477010451250000</v>
       </c>
       <c r="B84" s="1">
-        <v>1.5160499999999999</v>
+        <v>1.5608299999999999</v>
       </c>
       <c r="C84" s="1">
         <v>7.8150000000000004</v>
@@ -9268,7 +9269,7 @@
         <v>1477010451350000</v>
       </c>
       <c r="B85" s="1">
-        <v>3.1701800000000002</v>
+        <v>3.1802800000000002</v>
       </c>
       <c r="C85" s="1">
         <v>7.8150000000000004</v>
@@ -9279,7 +9280,7 @@
         <v>1477010451450000</v>
       </c>
       <c r="B86" s="1">
-        <v>2.1696399999999998</v>
+        <v>2.1032299999999999</v>
       </c>
       <c r="C86" s="1">
         <v>7.8150000000000004</v>
@@ -9290,7 +9291,7 @@
         <v>1477010451550000</v>
       </c>
       <c r="B87" s="1">
-        <v>4.2688300000000003</v>
+        <v>3.9869400000000002</v>
       </c>
       <c r="C87" s="1">
         <v>7.8150000000000004</v>
@@ -9301,7 +9302,7 @@
         <v>1477010451650000</v>
       </c>
       <c r="B88" s="1">
-        <v>2.8494599999999998E-2</v>
+        <v>2.9094999999999999E-2</v>
       </c>
       <c r="C88" s="1">
         <v>7.8150000000000004</v>
@@ -9312,7 +9313,7 @@
         <v>1477010451750000</v>
       </c>
       <c r="B89" s="1">
-        <v>3.2595499999999999</v>
+        <v>3.1994899999999999</v>
       </c>
       <c r="C89" s="1">
         <v>7.8150000000000004</v>
@@ -9323,7 +9324,7 @@
         <v>1477010451850000</v>
       </c>
       <c r="B90" s="1">
-        <v>0.45827699999999999</v>
+        <v>0.52659100000000003</v>
       </c>
       <c r="C90" s="1">
         <v>7.8150000000000004</v>
@@ -9334,7 +9335,7 @@
         <v>1477010451950000</v>
       </c>
       <c r="B91" s="1">
-        <v>0.62769799999999998</v>
+        <v>0.64471800000000001</v>
       </c>
       <c r="C91" s="1">
         <v>7.8150000000000004</v>
@@ -9345,7 +9346,7 @@
         <v>1477010452050000</v>
       </c>
       <c r="B92" s="1">
-        <v>2.5867200000000001</v>
+        <v>2.5754600000000001</v>
       </c>
       <c r="C92" s="1">
         <v>7.8150000000000004</v>
@@ -9356,7 +9357,7 @@
         <v>1477010452150000</v>
       </c>
       <c r="B93" s="1">
-        <v>2.7052399999999999</v>
+        <v>2.81779</v>
       </c>
       <c r="C93" s="1">
         <v>7.8150000000000004</v>
@@ -9367,7 +9368,7 @@
         <v>1477010452250000</v>
       </c>
       <c r="B94" s="1">
-        <v>0.58653900000000003</v>
+        <v>0.564025</v>
       </c>
       <c r="C94" s="1">
         <v>7.8150000000000004</v>
@@ -9378,7 +9379,7 @@
         <v>1477010452350000</v>
       </c>
       <c r="B95" s="1">
-        <v>4.5116899999999998</v>
+        <v>4.4255399999999998</v>
       </c>
       <c r="C95" s="1">
         <v>7.8150000000000004</v>
@@ -9389,7 +9390,7 @@
         <v>1477010452450000</v>
       </c>
       <c r="B96" s="1">
-        <v>3.12127</v>
+        <v>3.2054800000000001</v>
       </c>
       <c r="C96" s="1">
         <v>7.8150000000000004</v>
@@ -9400,7 +9401,7 @@
         <v>1477010452550000</v>
       </c>
       <c r="B97" s="1">
-        <v>1.4128799999999999</v>
+        <v>1.3825400000000001</v>
       </c>
       <c r="C97" s="1">
         <v>7.8150000000000004</v>
@@ -9411,7 +9412,7 @@
         <v>1477010452650000</v>
       </c>
       <c r="B98" s="1">
-        <v>8.1010100000000005</v>
+        <v>8.0751799999999996</v>
       </c>
       <c r="C98" s="1">
         <v>7.8150000000000004</v>
@@ -9422,7 +9423,7 @@
         <v>1477010452750000</v>
       </c>
       <c r="B99" s="1">
-        <v>2.7263999999999999</v>
+        <v>2.75095</v>
       </c>
       <c r="C99" s="1">
         <v>7.8150000000000004</v>
@@ -9433,7 +9434,7 @@
         <v>1477010452850000</v>
       </c>
       <c r="B100" s="1">
-        <v>3.7671600000000001</v>
+        <v>3.6851500000000001</v>
       </c>
       <c r="C100" s="1">
         <v>7.8150000000000004</v>
@@ -9444,7 +9445,7 @@
         <v>1477010452950000</v>
       </c>
       <c r="B101" s="1">
-        <v>1.3553500000000001</v>
+        <v>1.3517399999999999</v>
       </c>
       <c r="C101" s="1">
         <v>7.8150000000000004</v>
@@ -9455,7 +9456,7 @@
         <v>1477010453050000</v>
       </c>
       <c r="B102" s="1">
-        <v>3.1588500000000002</v>
+        <v>3.1515900000000001</v>
       </c>
       <c r="C102" s="1">
         <v>7.8150000000000004</v>
@@ -9466,7 +9467,7 @@
         <v>1477010453150000</v>
       </c>
       <c r="B103" s="1">
-        <v>6.5602999999999998</v>
+        <v>6.32728</v>
       </c>
       <c r="C103" s="1">
         <v>7.8150000000000004</v>
@@ -9477,7 +9478,7 @@
         <v>1477010453250000</v>
       </c>
       <c r="B104" s="1">
-        <v>2.0767699999999998</v>
+        <v>1.95912</v>
       </c>
       <c r="C104" s="1">
         <v>7.8150000000000004</v>
@@ -9488,7 +9489,7 @@
         <v>1477010453350000</v>
       </c>
       <c r="B105" s="1">
-        <v>1.11707</v>
+        <v>1.06697</v>
       </c>
       <c r="C105" s="1">
         <v>7.8150000000000004</v>
@@ -9499,7 +9500,7 @@
         <v>1477010453450000</v>
       </c>
       <c r="B106" s="1">
-        <v>2.7426900000000001</v>
+        <v>2.50495</v>
       </c>
       <c r="C106" s="1">
         <v>7.8150000000000004</v>
@@ -9510,7 +9511,7 @@
         <v>1477010453550000</v>
       </c>
       <c r="B107" s="1">
-        <v>2.6487099999999999</v>
+        <v>2.6628500000000002</v>
       </c>
       <c r="C107" s="1">
         <v>7.8150000000000004</v>
@@ -9521,7 +9522,7 @@
         <v>1477010453650000</v>
       </c>
       <c r="B108" s="1">
-        <v>1.41388</v>
+        <v>1.32359</v>
       </c>
       <c r="C108" s="1">
         <v>7.8150000000000004</v>
@@ -9532,7 +9533,7 @@
         <v>1477010453750000</v>
       </c>
       <c r="B109" s="1">
-        <v>5.0897100000000002</v>
+        <v>4.5914200000000003</v>
       </c>
       <c r="C109" s="1">
         <v>7.8150000000000004</v>
@@ -9543,7 +9544,7 @@
         <v>1477010453850000</v>
       </c>
       <c r="B110" s="1">
-        <v>2.2106699999999999</v>
+        <v>1.87934</v>
       </c>
       <c r="C110" s="1">
         <v>7.8150000000000004</v>
@@ -9554,7 +9555,7 @@
         <v>1477010453950000</v>
       </c>
       <c r="B111" s="1">
-        <v>1.3831500000000001</v>
+        <v>1.2257199999999999</v>
       </c>
       <c r="C111" s="1">
         <v>7.8150000000000004</v>
@@ -9565,7 +9566,7 @@
         <v>1477010454050000</v>
       </c>
       <c r="B112" s="1">
-        <v>3.7327499999999998</v>
+        <v>3.3233700000000002</v>
       </c>
       <c r="C112" s="1">
         <v>7.8150000000000004</v>
@@ -9576,7 +9577,7 @@
         <v>1477010454150000</v>
       </c>
       <c r="B113" s="1">
-        <v>3.2897799999999999</v>
+        <v>3.07599</v>
       </c>
       <c r="C113" s="1">
         <v>7.8150000000000004</v>
@@ -9587,7 +9588,7 @@
         <v>1477010454250000</v>
       </c>
       <c r="B114" s="1">
-        <v>2.1127600000000002</v>
+        <v>1.62429</v>
       </c>
       <c r="C114" s="1">
         <v>7.8150000000000004</v>
@@ -9598,7 +9599,7 @@
         <v>1477010454350000</v>
       </c>
       <c r="B115" s="1">
-        <v>3.6257100000000002</v>
+        <v>3.7283400000000002</v>
       </c>
       <c r="C115" s="1">
         <v>7.8150000000000004</v>
@@ -9609,7 +9610,7 @@
         <v>1477010454450000</v>
       </c>
       <c r="B116" s="1">
-        <v>0.63861800000000002</v>
+        <v>0.57887699999999997</v>
       </c>
       <c r="C116" s="1">
         <v>7.8150000000000004</v>
@@ -9620,7 +9621,7 @@
         <v>1477010454550000</v>
       </c>
       <c r="B117" s="1">
-        <v>1.77339</v>
+        <v>1.3199700000000001</v>
       </c>
       <c r="C117" s="1">
         <v>7.8150000000000004</v>
@@ -9631,7 +9632,7 @@
         <v>1477010454650000</v>
       </c>
       <c r="B118" s="1">
-        <v>0.96474899999999997</v>
+        <v>1.1268800000000001</v>
       </c>
       <c r="C118" s="1">
         <v>7.8150000000000004</v>
@@ -9642,7 +9643,7 @@
         <v>1477010454750000</v>
       </c>
       <c r="B119" s="1">
-        <v>3.24716</v>
+        <v>2.7403200000000001</v>
       </c>
       <c r="C119" s="1">
         <v>7.8150000000000004</v>
@@ -9653,7 +9654,7 @@
         <v>1477010454850000</v>
       </c>
       <c r="B120" s="1">
-        <v>1.6930499999999999</v>
+        <v>2.0249899999999998</v>
       </c>
       <c r="C120" s="1">
         <v>7.8150000000000004</v>
@@ -9664,7 +9665,7 @@
         <v>1477010454950000</v>
       </c>
       <c r="B121" s="1">
-        <v>4.1409799999999999</v>
+        <v>3.5228799999999998</v>
       </c>
       <c r="C121" s="1">
         <v>7.8150000000000004</v>
@@ -9675,7 +9676,7 @@
         <v>1477010455050000</v>
       </c>
       <c r="B122" s="1">
-        <v>4.4757899999999999</v>
+        <v>5.1634500000000001</v>
       </c>
       <c r="C122" s="1">
         <v>7.8150000000000004</v>
@@ -9686,7 +9687,7 @@
         <v>1477010455150000</v>
       </c>
       <c r="B123" s="1">
-        <v>7.5342700000000002</v>
+        <v>7.1838899999999999</v>
       </c>
       <c r="C123" s="1">
         <v>7.8150000000000004</v>
@@ -9697,7 +9698,7 @@
         <v>1477010455250000</v>
       </c>
       <c r="B124" s="1">
-        <v>0.54134800000000005</v>
+        <v>0.77047600000000005</v>
       </c>
       <c r="C124" s="1">
         <v>7.8150000000000004</v>
@@ -9708,7 +9709,7 @@
         <v>1477010455350000</v>
       </c>
       <c r="B125" s="1">
-        <v>5.7318300000000004</v>
+        <v>5.9395300000000004</v>
       </c>
       <c r="C125" s="1">
         <v>7.8150000000000004</v>
@@ -9719,7 +9720,7 @@
         <v>1477010455450000</v>
       </c>
       <c r="B126" s="1">
-        <v>2.8736000000000002</v>
+        <v>2.7571699999999999</v>
       </c>
       <c r="C126" s="1">
         <v>7.8150000000000004</v>
@@ -9730,7 +9731,7 @@
         <v>1477010455550000</v>
       </c>
       <c r="B127" s="1">
-        <v>3.9028900000000002</v>
+        <v>3.7228599999999998</v>
       </c>
       <c r="C127" s="1">
         <v>7.8150000000000004</v>
@@ -9741,7 +9742,7 @@
         <v>1477010455650000</v>
       </c>
       <c r="B128" s="1">
-        <v>0.164301</v>
+        <v>0.11597</v>
       </c>
       <c r="C128" s="1">
         <v>7.8150000000000004</v>
@@ -9752,7 +9753,7 @@
         <v>1477010455750000</v>
       </c>
       <c r="B129" s="1">
-        <v>4.9029299999999996</v>
+        <v>4.6599899999999996</v>
       </c>
       <c r="C129" s="1">
         <v>7.8150000000000004</v>
@@ -9763,7 +9764,7 @@
         <v>1477010455850000</v>
       </c>
       <c r="B130" s="1">
-        <v>0.80996400000000002</v>
+        <v>0.77325699999999997</v>
       </c>
       <c r="C130" s="1">
         <v>7.8150000000000004</v>
@@ -9774,7 +9775,7 @@
         <v>1477010455950000</v>
       </c>
       <c r="B131" s="1">
-        <v>3.98671</v>
+        <v>4.2958499999999997</v>
       </c>
       <c r="C131" s="1">
         <v>7.8150000000000004</v>
@@ -9785,7 +9786,7 @@
         <v>1477010456050000</v>
       </c>
       <c r="B132" s="1">
-        <v>3.19536</v>
+        <v>2.8897300000000001</v>
       </c>
       <c r="C132" s="1">
         <v>7.8150000000000004</v>
@@ -9796,7 +9797,7 @@
         <v>1477010456150000</v>
       </c>
       <c r="B133" s="1">
-        <v>0.94756099999999999</v>
+        <v>0.69556799999999996</v>
       </c>
       <c r="C133" s="1">
         <v>7.8150000000000004</v>
@@ -9807,7 +9808,7 @@
         <v>1477010456250000</v>
       </c>
       <c r="B134" s="1">
-        <v>5.97417</v>
+        <v>5.8232200000000001</v>
       </c>
       <c r="C134" s="1">
         <v>7.8150000000000004</v>
@@ -9818,7 +9819,7 @@
         <v>1477010456350000</v>
       </c>
       <c r="B135" s="1">
-        <v>3.1858</v>
+        <v>2.7463299999999999</v>
       </c>
       <c r="C135" s="1">
         <v>7.8150000000000004</v>
@@ -9829,7 +9830,7 @@
         <v>1477010456450000</v>
       </c>
       <c r="B136" s="1">
-        <v>0.24671100000000001</v>
+        <v>0.36906699999999998</v>
       </c>
       <c r="C136" s="1">
         <v>7.8150000000000004</v>
@@ -9840,7 +9841,7 @@
         <v>1477010456550000</v>
       </c>
       <c r="B137" s="1">
-        <v>7.9569599999999996</v>
+        <v>7.1536900000000001</v>
       </c>
       <c r="C137" s="1">
         <v>7.8150000000000004</v>
@@ -9851,7 +9852,7 @@
         <v>1477010456650000</v>
       </c>
       <c r="B138" s="1">
-        <v>4.9957099999999999</v>
+        <v>4.9706599999999996</v>
       </c>
       <c r="C138" s="1">
         <v>7.8150000000000004</v>
@@ -9862,7 +9863,7 @@
         <v>1477010456750000</v>
       </c>
       <c r="B139" s="1">
-        <v>2.2502200000000001</v>
+        <v>2.7273299999999998</v>
       </c>
       <c r="C139" s="1">
         <v>7.8150000000000004</v>
@@ -9873,7 +9874,7 @@
         <v>1477010456850000</v>
       </c>
       <c r="B140" s="1">
-        <v>6.6625100000000002</v>
+        <v>6.71035</v>
       </c>
       <c r="C140" s="1">
         <v>7.8150000000000004</v>
@@ -9884,7 +9885,7 @@
         <v>1477010456950000</v>
       </c>
       <c r="B141" s="1">
-        <v>3.8429500000000001</v>
+        <v>3.60608</v>
       </c>
       <c r="C141" s="1">
         <v>7.8150000000000004</v>
@@ -9895,7 +9896,7 @@
         <v>1477010457050000</v>
       </c>
       <c r="B142" s="1">
-        <v>5.4227600000000002</v>
+        <v>5.29976</v>
       </c>
       <c r="C142" s="1">
         <v>7.8150000000000004</v>
@@ -9906,7 +9907,7 @@
         <v>1477010457150000</v>
       </c>
       <c r="B143" s="1">
-        <v>2.5659900000000002</v>
+        <v>2.6996000000000002</v>
       </c>
       <c r="C143" s="1">
         <v>7.8150000000000004</v>
@@ -9917,7 +9918,7 @@
         <v>1477010457250000</v>
       </c>
       <c r="B144" s="1">
-        <v>1.1916599999999999</v>
+        <v>1.1902200000000001</v>
       </c>
       <c r="C144" s="1">
         <v>7.8150000000000004</v>
@@ -9928,7 +9929,7 @@
         <v>1477010457350000</v>
       </c>
       <c r="B145" s="1">
-        <v>0.14430100000000001</v>
+        <v>0.14979999999999999</v>
       </c>
       <c r="C145" s="1">
         <v>7.8150000000000004</v>
@@ -9939,7 +9940,7 @@
         <v>1477010457450000</v>
       </c>
       <c r="B146" s="1">
-        <v>3.5678399999999999</v>
+        <v>3.23664</v>
       </c>
       <c r="C146" s="1">
         <v>7.8150000000000004</v>
@@ -9950,7 +9951,7 @@
         <v>1477010457550000</v>
       </c>
       <c r="B147" s="1">
-        <v>1.1754199999999999</v>
+        <v>1.3424799999999999</v>
       </c>
       <c r="C147" s="1">
         <v>7.8150000000000004</v>
@@ -9961,7 +9962,7 @@
         <v>1477010457650000</v>
       </c>
       <c r="B148" s="1">
-        <v>8.3087999999999995E-2</v>
+        <v>6.83613E-2</v>
       </c>
       <c r="C148" s="1">
         <v>7.8150000000000004</v>
@@ -9972,7 +9973,7 @@
         <v>1477010457750000</v>
       </c>
       <c r="B149" s="1">
-        <v>2.17692</v>
+        <v>2.2412999999999998</v>
       </c>
       <c r="C149" s="1">
         <v>7.8150000000000004</v>
@@ -9983,7 +9984,7 @@
         <v>1477010457850000</v>
       </c>
       <c r="B150" s="1">
-        <v>5.37141</v>
+        <v>5.4462700000000002</v>
       </c>
       <c r="C150" s="1">
         <v>7.8150000000000004</v>
@@ -9994,7 +9995,7 @@
         <v>1477010457950000</v>
       </c>
       <c r="B151" s="1">
-        <v>0.43001</v>
+        <v>0.37213200000000002</v>
       </c>
       <c r="C151" s="1">
         <v>7.8150000000000004</v>
@@ -10005,7 +10006,7 @@
         <v>1477010458050000</v>
       </c>
       <c r="B152" s="1">
-        <v>8.2100200000000001</v>
+        <v>7.81928</v>
       </c>
       <c r="C152" s="1">
         <v>7.8150000000000004</v>
@@ -10016,7 +10017,7 @@
         <v>1477010458150000</v>
       </c>
       <c r="B153" s="1">
-        <v>1.1039399999999999</v>
+        <v>0.96148699999999998</v>
       </c>
       <c r="C153" s="1">
         <v>7.8150000000000004</v>
@@ -10027,7 +10028,7 @@
         <v>1477010458250000</v>
       </c>
       <c r="B154" s="1">
-        <v>6.5192600000000001</v>
+        <v>6.4292100000000003</v>
       </c>
       <c r="C154" s="1">
         <v>7.8150000000000004</v>
@@ -10038,7 +10039,7 @@
         <v>1477010458350000</v>
       </c>
       <c r="B155" s="1">
-        <v>1.87331</v>
+        <v>1.69177</v>
       </c>
       <c r="C155" s="1">
         <v>7.8150000000000004</v>
@@ -10049,7 +10050,7 @@
         <v>1477010458450000</v>
       </c>
       <c r="B156" s="1">
-        <v>2.7827199999999999</v>
+        <v>2.4964200000000001</v>
       </c>
       <c r="C156" s="1">
         <v>7.8150000000000004</v>
@@ -10060,7 +10061,7 @@
         <v>1477010458550000</v>
       </c>
       <c r="B157" s="1">
-        <v>1.4866699999999999</v>
+        <v>1.1444300000000001</v>
       </c>
       <c r="C157" s="1">
         <v>7.8150000000000004</v>
@@ -10071,7 +10072,7 @@
         <v>1477010458650000</v>
       </c>
       <c r="B158" s="1">
-        <v>2.6162100000000001</v>
+        <v>2.0901700000000001</v>
       </c>
       <c r="C158" s="1">
         <v>7.8150000000000004</v>
@@ -10082,7 +10083,7 @@
         <v>1477010458750000</v>
       </c>
       <c r="B159" s="1">
-        <v>3.67815</v>
+        <v>2.8418800000000002</v>
       </c>
       <c r="C159" s="1">
         <v>7.8150000000000004</v>
@@ -10093,7 +10094,7 @@
         <v>1477010458850000</v>
       </c>
       <c r="B160" s="1">
-        <v>2.2363599999999999</v>
+        <v>2.2703899999999999</v>
       </c>
       <c r="C160" s="1">
         <v>7.8150000000000004</v>
@@ -10104,7 +10105,7 @@
         <v>1477010458950000</v>
       </c>
       <c r="B161" s="1">
-        <v>4.48902</v>
+        <v>3.4786700000000002</v>
       </c>
       <c r="C161" s="1">
         <v>7.8150000000000004</v>
@@ -10115,7 +10116,7 @@
         <v>1477010459050000</v>
       </c>
       <c r="B162" s="1">
-        <v>2.4398200000000001</v>
+        <v>2.6075699999999999</v>
       </c>
       <c r="C162" s="1">
         <v>7.8150000000000004</v>
@@ -10126,7 +10127,7 @@
         <v>1477010459150000</v>
       </c>
       <c r="B163" s="1">
-        <v>7.8288599999999997</v>
+        <v>6.3768799999999999</v>
       </c>
       <c r="C163" s="1">
         <v>7.8150000000000004</v>
@@ -10137,7 +10138,7 @@
         <v>1477010459250000</v>
       </c>
       <c r="B164" s="1">
-        <v>1.5393399999999999</v>
+        <v>1.944</v>
       </c>
       <c r="C164" s="1">
         <v>7.8150000000000004</v>
@@ -10148,7 +10149,7 @@
         <v>1477010459350000</v>
       </c>
       <c r="B165" s="1">
-        <v>0.66692099999999999</v>
+        <v>0.42838199999999999</v>
       </c>
       <c r="C165" s="1">
         <v>7.8150000000000004</v>
@@ -10159,7 +10160,7 @@
         <v>1477010459450000</v>
       </c>
       <c r="B166" s="1">
-        <v>3.1772800000000001</v>
+        <v>3.6991299999999998</v>
       </c>
       <c r="C166" s="1">
         <v>7.8150000000000004</v>
@@ -10170,7 +10171,7 @@
         <v>1477010459550000</v>
       </c>
       <c r="B167" s="1">
-        <v>2.7253400000000001</v>
+        <v>2.5122100000000001</v>
       </c>
       <c r="C167" s="1">
         <v>7.8150000000000004</v>
@@ -10181,7 +10182,7 @@
         <v>1477010459650000</v>
       </c>
       <c r="B168" s="1">
-        <v>2.6644299999999999</v>
+        <v>2.5458099999999999</v>
       </c>
       <c r="C168" s="1">
         <v>7.8150000000000004</v>
@@ -10192,7 +10193,7 @@
         <v>1477010459750000</v>
       </c>
       <c r="B169" s="1">
-        <v>6.2142099999999996</v>
+        <v>5.3012499999999996</v>
       </c>
       <c r="C169" s="1">
         <v>7.8150000000000004</v>
@@ -10203,7 +10204,7 @@
         <v>1477010459850000</v>
       </c>
       <c r="B170" s="1">
-        <v>6.0455500000000004</v>
+        <v>6.3929200000000002</v>
       </c>
       <c r="C170" s="1">
         <v>7.8150000000000004</v>
@@ -10214,7 +10215,7 @@
         <v>1477010459950000</v>
       </c>
       <c r="B171" s="1">
-        <v>2.56155</v>
+        <v>2.8831799999999999</v>
       </c>
       <c r="C171" s="1">
         <v>7.8150000000000004</v>
@@ -10225,7 +10226,7 @@
         <v>1477010460050000</v>
       </c>
       <c r="B172" s="1">
-        <v>1.87584</v>
+        <v>1.8731</v>
       </c>
       <c r="C172" s="1">
         <v>7.8150000000000004</v>
@@ -10236,7 +10237,7 @@
         <v>1477010460150000</v>
       </c>
       <c r="B173" s="1">
-        <v>1.56751</v>
+        <v>1.2442299999999999</v>
       </c>
       <c r="C173" s="1">
         <v>7.8150000000000004</v>
@@ -10247,7 +10248,7 @@
         <v>1477010460250000</v>
       </c>
       <c r="B174" s="1">
-        <v>4.0111699999999999</v>
+        <v>3.63286</v>
       </c>
       <c r="C174" s="1">
         <v>7.8150000000000004</v>
@@ -10258,7 +10259,7 @@
         <v>1477010460350000</v>
       </c>
       <c r="B175" s="1">
-        <v>2.1029</v>
+        <v>2.2564600000000001</v>
       </c>
       <c r="C175" s="1">
         <v>7.8150000000000004</v>
@@ -10269,7 +10270,7 @@
         <v>1477010460450000</v>
       </c>
       <c r="B176" s="1">
-        <v>5.5727599999999997</v>
+        <v>5.8046300000000004</v>
       </c>
       <c r="C176" s="1">
         <v>7.8150000000000004</v>
@@ -10280,7 +10281,7 @@
         <v>1477010460550000</v>
       </c>
       <c r="B177" s="1">
-        <v>2.2268300000000001</v>
+        <v>2.1583700000000001</v>
       </c>
       <c r="C177" s="1">
         <v>7.8150000000000004</v>
@@ -10291,7 +10292,7 @@
         <v>1477010460650000</v>
       </c>
       <c r="B178" s="1">
-        <v>1.98594</v>
+        <v>2.32639</v>
       </c>
       <c r="C178" s="1">
         <v>7.8150000000000004</v>
@@ -10302,7 +10303,7 @@
         <v>1477010460750000</v>
       </c>
       <c r="B179" s="1">
-        <v>1.3963099999999999</v>
+        <v>1.6155200000000001</v>
       </c>
       <c r="C179" s="1">
         <v>7.8150000000000004</v>
@@ -10313,7 +10314,7 @@
         <v>1477010460850000</v>
       </c>
       <c r="B180" s="1">
-        <v>5.3213100000000004</v>
+        <v>5.43825</v>
       </c>
       <c r="C180" s="1">
         <v>7.8150000000000004</v>
@@ -10324,7 +10325,7 @@
         <v>1477010460950000</v>
       </c>
       <c r="B181" s="1">
-        <v>1.5290999999999999</v>
+        <v>1.41143</v>
       </c>
       <c r="C181" s="1">
         <v>7.8150000000000004</v>
@@ -10335,7 +10336,7 @@
         <v>1477010461050000</v>
       </c>
       <c r="B182" s="1">
-        <v>2.0051999999999999</v>
+        <v>1.8415699999999999</v>
       </c>
       <c r="C182" s="1">
         <v>7.8150000000000004</v>
@@ -10346,7 +10347,7 @@
         <v>1477010461150000</v>
       </c>
       <c r="B183" s="1">
-        <v>4.3425099999999999</v>
+        <v>4.4601800000000003</v>
       </c>
       <c r="C183" s="1">
         <v>7.8150000000000004</v>
@@ -10357,7 +10358,7 @@
         <v>1477010461250000</v>
       </c>
       <c r="B184" s="1">
-        <v>1.33165</v>
+        <v>1.2448600000000001</v>
       </c>
       <c r="C184" s="1">
         <v>7.8150000000000004</v>
@@ -10368,7 +10369,7 @@
         <v>1477010461350000</v>
       </c>
       <c r="B185" s="1">
-        <v>0.352049</v>
+        <v>0.39858500000000002</v>
       </c>
       <c r="C185" s="1">
         <v>7.8150000000000004</v>
@@ -10379,7 +10380,7 @@
         <v>1477010461450000</v>
       </c>
       <c r="B186" s="1">
-        <v>0.80177500000000002</v>
+        <v>0.89390999999999998</v>
       </c>
       <c r="C186" s="1">
         <v>7.8150000000000004</v>
@@ -10390,7 +10391,7 @@
         <v>1477010461550000</v>
       </c>
       <c r="B187" s="1">
-        <v>4.4343399999999997</v>
+        <v>4.4742600000000001</v>
       </c>
       <c r="C187" s="1">
         <v>7.8150000000000004</v>
@@ -10401,7 +10402,7 @@
         <v>1477010461650000</v>
       </c>
       <c r="B188" s="1">
-        <v>0.93132800000000004</v>
+        <v>0.87708799999999998</v>
       </c>
       <c r="C188" s="1">
         <v>7.8150000000000004</v>
@@ -10412,7 +10413,7 @@
         <v>1477010461750000</v>
       </c>
       <c r="B189" s="1">
-        <v>1.42093</v>
+        <v>1.4019600000000001</v>
       </c>
       <c r="C189" s="1">
         <v>7.8150000000000004</v>
@@ -10423,7 +10424,7 @@
         <v>1477010461850000</v>
       </c>
       <c r="B190" s="1">
-        <v>1.37815</v>
+        <v>1.32541</v>
       </c>
       <c r="C190" s="1">
         <v>7.8150000000000004</v>
@@ -10434,7 +10435,7 @@
         <v>1477010461950000</v>
       </c>
       <c r="B191" s="1">
-        <v>8.2986199999999997</v>
+        <v>7.8107899999999999</v>
       </c>
       <c r="C191" s="1">
         <v>7.8150000000000004</v>
@@ -10445,7 +10446,7 @@
         <v>1477010462050000</v>
       </c>
       <c r="B192" s="1">
-        <v>0.323714</v>
+        <v>0.26854</v>
       </c>
       <c r="C192" s="1">
         <v>7.8150000000000004</v>
@@ -10456,7 +10457,7 @@
         <v>1477010462150000</v>
       </c>
       <c r="B193" s="1">
-        <v>10.399900000000001</v>
+        <v>10.563499999999999</v>
       </c>
       <c r="C193" s="1">
         <v>7.8150000000000004</v>
@@ -10467,7 +10468,7 @@
         <v>1477010462250000</v>
       </c>
       <c r="B194" s="1">
-        <v>3.78518</v>
+        <v>3.8569599999999999</v>
       </c>
       <c r="C194" s="1">
         <v>7.8150000000000004</v>
@@ -10478,7 +10479,7 @@
         <v>1477010462350000</v>
       </c>
       <c r="B195" s="1">
-        <v>1.95557</v>
+        <v>1.9994700000000001</v>
       </c>
       <c r="C195" s="1">
         <v>7.8150000000000004</v>
@@ -10489,7 +10490,7 @@
         <v>1477010462450000</v>
       </c>
       <c r="B196" s="1">
-        <v>1.26681</v>
+        <v>1.11225</v>
       </c>
       <c r="C196" s="1">
         <v>7.8150000000000004</v>
@@ -10500,7 +10501,7 @@
         <v>1477010462550000</v>
       </c>
       <c r="B197" s="1">
-        <v>0.44687100000000002</v>
+        <v>0.52921799999999997</v>
       </c>
       <c r="C197" s="1">
         <v>7.8150000000000004</v>
@@ -10511,7 +10512,7 @@
         <v>1477010462650000</v>
       </c>
       <c r="B198" s="1">
-        <v>2.3380999999999998</v>
+        <v>2.3385400000000001</v>
       </c>
       <c r="C198" s="1">
         <v>7.8150000000000004</v>
@@ -10522,7 +10523,7 @@
         <v>1477010462750000</v>
       </c>
       <c r="B199" s="1">
-        <v>2.5087600000000001</v>
+        <v>2.2978000000000001</v>
       </c>
       <c r="C199" s="1">
         <v>7.8150000000000004</v>
@@ -10533,7 +10534,7 @@
         <v>1477010462850000</v>
       </c>
       <c r="B200" s="1">
-        <v>4.2481900000000001</v>
+        <v>4.0964200000000002</v>
       </c>
       <c r="C200" s="1">
         <v>7.8150000000000004</v>
@@ -10544,7 +10545,7 @@
         <v>1477010462950000</v>
       </c>
       <c r="B201" s="1">
-        <v>2.2953000000000001</v>
+        <v>1.60019</v>
       </c>
       <c r="C201" s="1">
         <v>7.8150000000000004</v>
@@ -10555,7 +10556,7 @@
         <v>1477010463050000</v>
       </c>
       <c r="B202" s="1">
-        <v>1.9205399999999999</v>
+        <v>1.95574</v>
       </c>
       <c r="C202" s="1">
         <v>7.8150000000000004</v>
@@ -10566,7 +10567,7 @@
         <v>1477010463150000</v>
       </c>
       <c r="B203" s="1">
-        <v>1.08371</v>
+        <v>1.05166</v>
       </c>
       <c r="C203" s="1">
         <v>7.8150000000000004</v>
@@ -10577,7 +10578,7 @@
         <v>1477010463250000</v>
       </c>
       <c r="B204" s="1">
-        <v>9.2206600000000005</v>
+        <v>9.3978000000000002</v>
       </c>
       <c r="C204" s="1">
         <v>7.8150000000000004</v>
@@ -10588,7 +10589,7 @@
         <v>1477010463350000</v>
       </c>
       <c r="B205" s="1">
-        <v>8.3724900000000009</v>
+        <v>7.9814800000000004</v>
       </c>
       <c r="C205" s="1">
         <v>7.8150000000000004</v>
@@ -10599,7 +10600,7 @@
         <v>1477010463450000</v>
       </c>
       <c r="B206" s="1">
-        <v>5.68846E-2</v>
+        <v>3.2010499999999997E-2</v>
       </c>
       <c r="C206" s="1">
         <v>7.8150000000000004</v>
@@ -10610,7 +10611,7 @@
         <v>1477010463550000</v>
       </c>
       <c r="B207" s="1">
-        <v>1.80332</v>
+        <v>1.75604</v>
       </c>
       <c r="C207" s="1">
         <v>7.8150000000000004</v>
@@ -10621,7 +10622,7 @@
         <v>1477010463650000</v>
       </c>
       <c r="B208" s="1">
-        <v>1.7207399999999999</v>
+        <v>1.7932399999999999</v>
       </c>
       <c r="C208" s="1">
         <v>7.8150000000000004</v>
@@ -10632,7 +10633,7 @@
         <v>1477010463750000</v>
       </c>
       <c r="B209" s="1">
-        <v>1.8503799999999999</v>
+        <v>1.96021</v>
       </c>
       <c r="C209" s="1">
         <v>7.8150000000000004</v>
@@ -10643,7 +10644,7 @@
         <v>1477010463850000</v>
       </c>
       <c r="B210" s="1">
-        <v>0.838306</v>
+        <v>0.71340999999999999</v>
       </c>
       <c r="C210" s="1">
         <v>7.8150000000000004</v>
@@ -10654,7 +10655,7 @@
         <v>1477010463950000</v>
       </c>
       <c r="B211" s="1">
-        <v>0.43430200000000002</v>
+        <v>0.35588599999999998</v>
       </c>
       <c r="C211" s="1">
         <v>7.8150000000000004</v>
@@ -10665,7 +10666,7 @@
         <v>1477010464050000</v>
       </c>
       <c r="B212" s="1">
-        <v>9.5288799999999991</v>
+        <v>9.4752600000000005</v>
       </c>
       <c r="C212" s="1">
         <v>7.8150000000000004</v>
@@ -10676,7 +10677,7 @@
         <v>1477010464150000</v>
       </c>
       <c r="B213" s="1">
-        <v>2.1521599999999999</v>
+        <v>2.1790600000000002</v>
       </c>
       <c r="C213" s="1">
         <v>7.8150000000000004</v>
@@ -10687,7 +10688,7 @@
         <v>1477010464250000</v>
       </c>
       <c r="B214" s="1">
-        <v>0.61898900000000001</v>
+        <v>0.63480800000000004</v>
       </c>
       <c r="C214" s="1">
         <v>7.8150000000000004</v>
@@ -10698,7 +10699,7 @@
         <v>1477010464350000</v>
       </c>
       <c r="B215" s="1">
-        <v>2.3941400000000002</v>
+        <v>2.20831</v>
       </c>
       <c r="C215" s="1">
         <v>7.8150000000000004</v>
@@ -10709,7 +10710,7 @@
         <v>1477010464450000</v>
       </c>
       <c r="B216" s="1">
-        <v>4.7617000000000003</v>
+        <v>4.8973800000000001</v>
       </c>
       <c r="C216" s="1">
         <v>7.8150000000000004</v>
@@ -10720,7 +10721,7 @@
         <v>1477010464550000</v>
       </c>
       <c r="B217" s="1">
-        <v>1.8249200000000001</v>
+        <v>1.87408</v>
       </c>
       <c r="C217" s="1">
         <v>7.8150000000000004</v>
@@ -10731,7 +10732,7 @@
         <v>1477010464650000</v>
       </c>
       <c r="B218" s="1">
-        <v>4.9168799999999999</v>
+        <v>4.73529</v>
       </c>
       <c r="C218" s="1">
         <v>7.8150000000000004</v>
@@ -10742,7 +10743,7 @@
         <v>1477010464750000</v>
       </c>
       <c r="B219" s="1">
-        <v>1.5683400000000001</v>
+        <v>1.59609</v>
       </c>
       <c r="C219" s="1">
         <v>7.8150000000000004</v>
@@ -10753,7 +10754,7 @@
         <v>1477010464850000</v>
       </c>
       <c r="B220" s="1">
-        <v>3.7066400000000002</v>
+        <v>3.9010199999999999</v>
       </c>
       <c r="C220" s="1">
         <v>7.8150000000000004</v>
@@ -10764,7 +10765,7 @@
         <v>1477010464950000</v>
       </c>
       <c r="B221" s="1">
-        <v>8.1309199999999997</v>
+        <v>8.3171499999999998</v>
       </c>
       <c r="C221" s="1">
         <v>7.8150000000000004</v>
@@ -10775,7 +10776,7 @@
         <v>1477010465050000</v>
       </c>
       <c r="B222" s="1">
-        <v>1.6324399999999999</v>
+        <v>1.6140000000000001</v>
       </c>
       <c r="C222" s="1">
         <v>7.8150000000000004</v>
@@ -10786,7 +10787,7 @@
         <v>1477010465150000</v>
       </c>
       <c r="B223" s="1">
-        <v>7.2436699999999998</v>
+        <v>7.1816199999999997</v>
       </c>
       <c r="C223" s="1">
         <v>7.8150000000000004</v>
@@ -10797,7 +10798,7 @@
         <v>1477010465250000</v>
       </c>
       <c r="B224" s="1">
-        <v>4.4122599999999998</v>
+        <v>4.3051899999999996</v>
       </c>
       <c r="C224" s="1">
         <v>7.8150000000000004</v>
@@ -10808,7 +10809,7 @@
         <v>1477010465350000</v>
       </c>
       <c r="B225" s="1">
-        <v>2.5076499999999999</v>
+        <v>2.4182399999999999</v>
       </c>
       <c r="C225" s="1">
         <v>7.8150000000000004</v>
@@ -10819,7 +10820,7 @@
         <v>1477010465450000</v>
       </c>
       <c r="B226" s="1">
-        <v>2.4161299999999999</v>
+        <v>2.3693200000000001</v>
       </c>
       <c r="C226" s="1">
         <v>7.8150000000000004</v>
@@ -10830,7 +10831,7 @@
         <v>1477010465550000</v>
       </c>
       <c r="B227" s="1">
-        <v>4.2475100000000001</v>
+        <v>3.9587500000000002</v>
       </c>
       <c r="C227" s="1">
         <v>7.8150000000000004</v>
@@ -10841,7 +10842,7 @@
         <v>1477010465650000</v>
       </c>
       <c r="B228" s="1">
-        <v>1.2901800000000001</v>
+        <v>1.4547600000000001</v>
       </c>
       <c r="C228" s="1">
         <v>7.8150000000000004</v>
@@ -10852,7 +10853,7 @@
         <v>1477010465750000</v>
       </c>
       <c r="B229" s="1">
-        <v>6.4611200000000002</v>
+        <v>6.6105</v>
       </c>
       <c r="C229" s="1">
         <v>7.8150000000000004</v>
@@ -10863,7 +10864,7 @@
         <v>1477010465850000</v>
       </c>
       <c r="B230" s="1">
-        <v>3.9101300000000001</v>
+        <v>3.7551999999999999</v>
       </c>
       <c r="C230" s="1">
         <v>7.8150000000000004</v>
@@ -10874,7 +10875,7 @@
         <v>1477010465950000</v>
       </c>
       <c r="B231" s="1">
-        <v>0.814944</v>
+        <v>0.66994200000000004</v>
       </c>
       <c r="C231" s="1">
         <v>7.8150000000000004</v>
@@ -10885,7 +10886,7 @@
         <v>1477010466050000</v>
       </c>
       <c r="B232" s="1">
-        <v>0.55246899999999999</v>
+        <v>0.44096600000000002</v>
       </c>
       <c r="C232" s="1">
         <v>7.8150000000000004</v>
@@ -10896,7 +10897,7 @@
         <v>1477010466150000</v>
       </c>
       <c r="B233" s="1">
-        <v>1.32151</v>
+        <v>1.08911</v>
       </c>
       <c r="C233" s="1">
         <v>7.8150000000000004</v>
@@ -10907,7 +10908,7 @@
         <v>1477010466250000</v>
       </c>
       <c r="B234" s="1">
-        <v>1.0319</v>
+        <v>0.923786</v>
       </c>
       <c r="C234" s="1">
         <v>7.8150000000000004</v>
@@ -10918,7 +10919,7 @@
         <v>1477010466350000</v>
       </c>
       <c r="B235" s="1">
-        <v>8.6189400000000003</v>
+        <v>7.9112</v>
       </c>
       <c r="C235" s="1">
         <v>7.8150000000000004</v>
@@ -10929,7 +10930,7 @@
         <v>1477010466450000</v>
       </c>
       <c r="B236" s="1">
-        <v>6.8329300000000002</v>
+        <v>7.1594100000000003</v>
       </c>
       <c r="C236" s="1">
         <v>7.8150000000000004</v>
@@ -10940,7 +10941,7 @@
         <v>1477010466550000</v>
       </c>
       <c r="B237" s="1">
-        <v>1.0388500000000001</v>
+        <v>0.817272</v>
       </c>
       <c r="C237" s="1">
         <v>7.8150000000000004</v>
@@ -10951,7 +10952,7 @@
         <v>1477010466650000</v>
       </c>
       <c r="B238" s="1">
-        <v>4.8018400000000003</v>
+        <v>4.4792800000000002</v>
       </c>
       <c r="C238" s="1">
         <v>7.8150000000000004</v>
@@ -10962,7 +10963,7 @@
         <v>1477010466750000</v>
       </c>
       <c r="B239" s="1">
-        <v>0.76960899999999999</v>
+        <v>0.51347600000000004</v>
       </c>
       <c r="C239" s="1">
         <v>7.8150000000000004</v>
@@ -10973,7 +10974,7 @@
         <v>1477010466850000</v>
       </c>
       <c r="B240" s="1">
-        <v>3.7341899999999999</v>
+        <v>3.2020300000000002</v>
       </c>
       <c r="C240" s="1">
         <v>7.8150000000000004</v>
@@ -10984,7 +10985,7 @@
         <v>1477010466950000</v>
       </c>
       <c r="B241" s="1">
-        <v>1.7051099999999999</v>
+        <v>1.49044</v>
       </c>
       <c r="C241" s="1">
         <v>7.8150000000000004</v>
@@ -10995,7 +10996,7 @@
         <v>1477010467050000</v>
       </c>
       <c r="B242" s="1">
-        <v>2.9320599999999999</v>
+        <v>2.4024299999999998</v>
       </c>
       <c r="C242" s="1">
         <v>7.8150000000000004</v>
@@ -11006,7 +11007,7 @@
         <v>1477010467150000</v>
       </c>
       <c r="B243" s="1">
-        <v>6.4595200000000004</v>
+        <v>6.8188199999999997</v>
       </c>
       <c r="C243" s="1">
         <v>7.8150000000000004</v>
@@ -11017,7 +11018,7 @@
         <v>1477010467250000</v>
       </c>
       <c r="B244" s="1">
-        <v>0.369008</v>
+        <v>0.41478799999999999</v>
       </c>
       <c r="C244" s="1">
         <v>7.8150000000000004</v>
@@ -11028,7 +11029,7 @@
         <v>1477010467350000</v>
       </c>
       <c r="B245" s="1">
-        <v>8.4735600000000009</v>
+        <v>8.2921600000000009</v>
       </c>
       <c r="C245" s="1">
         <v>7.8150000000000004</v>
@@ -11039,7 +11040,7 @@
         <v>1477010467450000</v>
       </c>
       <c r="B246" s="1">
-        <v>3.67096</v>
+        <v>4.2245200000000001</v>
       </c>
       <c r="C246" s="1">
         <v>7.8150000000000004</v>
@@ -11050,7 +11051,7 @@
         <v>1477010467550000</v>
       </c>
       <c r="B247" s="1">
-        <v>2.1071</v>
+        <v>2.2631899999999998</v>
       </c>
       <c r="C247" s="1">
         <v>7.8150000000000004</v>
@@ -11061,7 +11062,7 @@
         <v>1477010467650000</v>
       </c>
       <c r="B248" s="1">
-        <v>3.8354499999999998</v>
+        <v>3.9959899999999999</v>
       </c>
       <c r="C248" s="1">
         <v>7.8150000000000004</v>
@@ -11072,7 +11073,7 @@
         <v>1477010467750000</v>
       </c>
       <c r="B249" s="1">
-        <v>3.3820000000000001</v>
+        <v>3.3611900000000001</v>
       </c>
       <c r="C249" s="1">
         <v>7.8150000000000004</v>
@@ -11083,7 +11084,7 @@
         <v>1477010467850000</v>
       </c>
       <c r="B250" s="1">
-        <v>2.6687400000000001</v>
+        <v>2.6096400000000002</v>
       </c>
       <c r="C250" s="1">
         <v>7.8150000000000004</v>
@@ -11099,8 +11100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11121,7 +11122,7 @@
         <v>1477010443100000</v>
       </c>
       <c r="B2" s="1">
-        <v>0.72863299999999998</v>
+        <v>0.67098400000000002</v>
       </c>
       <c r="C2" s="1">
         <v>5.9909999999999997</v>
@@ -11132,7 +11133,7 @@
         <v>1477010443200000</v>
       </c>
       <c r="B3" s="1">
-        <v>4.8335100000000004</v>
+        <v>1.7705500000000001</v>
       </c>
       <c r="C3" s="1">
         <v>5.9909999999999997</v>
@@ -11143,7 +11144,7 @@
         <v>1477010443300000</v>
       </c>
       <c r="B4" s="1">
-        <v>8.6052900000000001</v>
+        <v>1.11798</v>
       </c>
       <c r="C4" s="1">
         <v>5.9909999999999997</v>
@@ -11154,7 +11155,7 @@
         <v>1477010443400000</v>
       </c>
       <c r="B5" s="1">
-        <v>5.7530999999999999</v>
+        <v>0.387075</v>
       </c>
       <c r="C5" s="1">
         <v>5.9909999999999997</v>
@@ -11165,7 +11166,7 @@
         <v>1477010443500000</v>
       </c>
       <c r="B6" s="1">
-        <v>1.81975</v>
+        <v>0.20424600000000001</v>
       </c>
       <c r="C6" s="1">
         <v>5.9909999999999997</v>
@@ -11176,7 +11177,7 @@
         <v>1477010443600000</v>
       </c>
       <c r="B7" s="1">
-        <v>10.5448</v>
+        <v>3.6942499999999998</v>
       </c>
       <c r="C7" s="1">
         <v>5.9909999999999997</v>
@@ -11187,7 +11188,7 @@
         <v>1477010443700000</v>
       </c>
       <c r="B8" s="1">
-        <v>3.7254100000000001</v>
+        <v>1.6993499999999999</v>
       </c>
       <c r="C8" s="1">
         <v>5.9909999999999997</v>
@@ -11198,7 +11199,7 @@
         <v>1477010443800000</v>
       </c>
       <c r="B9" s="1">
-        <v>5.3443300000000002</v>
+        <v>9.8773700000000009</v>
       </c>
       <c r="C9" s="1">
         <v>5.9909999999999997</v>
@@ -11209,7 +11210,7 @@
         <v>1477010443900000</v>
       </c>
       <c r="B10" s="1">
-        <v>8.5629100000000005</v>
+        <v>4.5224900000000003</v>
       </c>
       <c r="C10" s="1">
         <v>5.9909999999999997</v>
@@ -11220,7 +11221,7 @@
         <v>1477010444000000</v>
       </c>
       <c r="B11" s="1">
-        <v>2.9646499999999998</v>
+        <v>1.0557700000000001</v>
       </c>
       <c r="C11" s="1">
         <v>5.9909999999999997</v>
@@ -11231,7 +11232,7 @@
         <v>1477010444100000</v>
       </c>
       <c r="B12" s="1">
-        <v>0.51287099999999997</v>
+        <v>0.82193400000000005</v>
       </c>
       <c r="C12" s="1">
         <v>5.9909999999999997</v>
@@ -11242,7 +11243,7 @@
         <v>1477010444200000</v>
       </c>
       <c r="B13" s="1">
-        <v>1.6249499999999999</v>
+        <v>2.4224899999999998</v>
       </c>
       <c r="C13" s="1">
         <v>5.9909999999999997</v>
@@ -11253,7 +11254,7 @@
         <v>1477010444300000</v>
       </c>
       <c r="B14" s="1">
-        <v>1.6944900000000001</v>
+        <v>2.6813699999999998</v>
       </c>
       <c r="C14" s="1">
         <v>5.9909999999999997</v>
@@ -11264,7 +11265,7 @@
         <v>1477010444400000</v>
       </c>
       <c r="B15" s="1">
-        <v>1.69218</v>
+        <v>2.21332</v>
       </c>
       <c r="C15" s="1">
         <v>5.9909999999999997</v>
@@ -11275,7 +11276,7 @@
         <v>1477010444500000</v>
       </c>
       <c r="B16" s="1">
-        <v>0.24710099999999999</v>
+        <v>0.63465199999999999</v>
       </c>
       <c r="C16" s="1">
         <v>5.9909999999999997</v>
@@ -11286,7 +11287,7 @@
         <v>1477010444600000</v>
       </c>
       <c r="B17" s="1">
-        <v>0.81588400000000005</v>
+        <v>0.74749699999999997</v>
       </c>
       <c r="C17" s="1">
         <v>5.9909999999999997</v>
@@ -11297,7 +11298,7 @@
         <v>1477010444700000</v>
       </c>
       <c r="B18" s="1">
-        <v>0.12742000000000001</v>
+        <v>0.20911099999999999</v>
       </c>
       <c r="C18" s="1">
         <v>5.9909999999999997</v>
@@ -11308,7 +11309,7 @@
         <v>1477010444800000</v>
       </c>
       <c r="B19" s="1">
-        <v>5.2975399999999997</v>
+        <v>4.7000900000000003</v>
       </c>
       <c r="C19" s="1">
         <v>5.9909999999999997</v>
@@ -11319,7 +11320,7 @@
         <v>1477010444900000</v>
       </c>
       <c r="B20" s="1">
-        <v>0.73035399999999995</v>
+        <v>0.86303799999999997</v>
       </c>
       <c r="C20" s="1">
         <v>5.9909999999999997</v>
@@ -11330,7 +11331,7 @@
         <v>1477010445000000</v>
       </c>
       <c r="B21" s="1">
-        <v>0.54822400000000004</v>
+        <v>0.65145399999999998</v>
       </c>
       <c r="C21" s="1">
         <v>5.9909999999999997</v>
@@ -11341,7 +11342,7 @@
         <v>1477010445100000</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5861499999999999</v>
+        <v>2.3803299999999998</v>
       </c>
       <c r="C22" s="1">
         <v>5.9909999999999997</v>
@@ -11352,7 +11353,7 @@
         <v>1477010445200000</v>
       </c>
       <c r="B23" s="1">
-        <v>0.331424</v>
+        <v>0.40142899999999998</v>
       </c>
       <c r="C23" s="1">
         <v>5.9909999999999997</v>
@@ -11363,7 +11364,7 @@
         <v>1477010445300000</v>
       </c>
       <c r="B24" s="1">
-        <v>0.36563499999999999</v>
+        <v>0.40331699999999998</v>
       </c>
       <c r="C24" s="1">
         <v>5.9909999999999997</v>
@@ -11374,7 +11375,7 @@
         <v>1477010445400000</v>
       </c>
       <c r="B25" s="1">
-        <v>3.1554799999999998</v>
+        <v>3.2065999999999999</v>
       </c>
       <c r="C25" s="1">
         <v>5.9909999999999997</v>
@@ -11385,7 +11386,7 @@
         <v>1477010445500000</v>
       </c>
       <c r="B26" s="1">
-        <v>2.07823</v>
+        <v>2.1249400000000001</v>
       </c>
       <c r="C26" s="1">
         <v>5.9909999999999997</v>
@@ -11396,7 +11397,7 @@
         <v>1477010445600000</v>
       </c>
       <c r="B27" s="1">
-        <v>1.15913</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="C27" s="1">
         <v>5.9909999999999997</v>
@@ -11407,7 +11408,7 @@
         <v>1477010445700000</v>
       </c>
       <c r="B28" s="1">
-        <v>1.3041400000000001</v>
+        <v>1.4017999999999999</v>
       </c>
       <c r="C28" s="1">
         <v>5.9909999999999997</v>
@@ -11418,7 +11419,7 @@
         <v>1477010445800000</v>
       </c>
       <c r="B29" s="1">
-        <v>1.9193899999999999</v>
+        <v>1.8447199999999999</v>
       </c>
       <c r="C29" s="1">
         <v>5.9909999999999997</v>
@@ -11429,7 +11430,7 @@
         <v>1477010445900000</v>
       </c>
       <c r="B30" s="1">
-        <v>2.2839800000000001</v>
+        <v>2.4320900000000001</v>
       </c>
       <c r="C30" s="1">
         <v>5.9909999999999997</v>
@@ -11440,7 +11441,7 @@
         <v>1477010446000000</v>
       </c>
       <c r="B31" s="1">
-        <v>1.94076</v>
+        <v>2.0839300000000001</v>
       </c>
       <c r="C31" s="1">
         <v>5.9909999999999997</v>
@@ -11451,7 +11452,7 @@
         <v>1477010446100000</v>
       </c>
       <c r="B32" s="1">
-        <v>0.26937699999999998</v>
+        <v>0.29287800000000003</v>
       </c>
       <c r="C32" s="1">
         <v>5.9909999999999997</v>
@@ -11462,7 +11463,7 @@
         <v>1477010446200000</v>
       </c>
       <c r="B33" s="1">
-        <v>1.1450499999999999</v>
+        <v>1.20591</v>
       </c>
       <c r="C33" s="1">
         <v>5.9909999999999997</v>
@@ -11473,7 +11474,7 @@
         <v>1477010446300000</v>
       </c>
       <c r="B34" s="1">
-        <v>0.61976699999999996</v>
+        <v>0.64898400000000001</v>
       </c>
       <c r="C34" s="1">
         <v>5.9909999999999997</v>
@@ -11484,7 +11485,7 @@
         <v>1477010446400000</v>
       </c>
       <c r="B35" s="1">
-        <v>1.78291</v>
+        <v>1.83595</v>
       </c>
       <c r="C35" s="1">
         <v>5.9909999999999997</v>
@@ -11495,7 +11496,7 @@
         <v>1477010446500000</v>
       </c>
       <c r="B36" s="1">
-        <v>0.64930299999999996</v>
+        <v>0.64433600000000002</v>
       </c>
       <c r="C36" s="1">
         <v>5.9909999999999997</v>
@@ -11506,7 +11507,7 @@
         <v>1477010446600000</v>
       </c>
       <c r="B37" s="1">
-        <v>1.1671100000000001</v>
+        <v>1.12296</v>
       </c>
       <c r="C37" s="1">
         <v>5.9909999999999997</v>
@@ -11517,7 +11518,7 @@
         <v>1477010446700000</v>
       </c>
       <c r="B38" s="1">
-        <v>2.9894400000000002E-2</v>
+        <v>4.3893300000000003E-2</v>
       </c>
       <c r="C38" s="1">
         <v>5.9909999999999997</v>
@@ -11528,7 +11529,7 @@
         <v>1477010446800000</v>
       </c>
       <c r="B39" s="1">
-        <v>2.0522999999999998</v>
+        <v>1.9968999999999999</v>
       </c>
       <c r="C39" s="1">
         <v>5.9909999999999997</v>
@@ -11539,7 +11540,7 @@
         <v>1477010446900000</v>
       </c>
       <c r="B40" s="1">
-        <v>3.0210699999999999</v>
+        <v>2.7596799999999999</v>
       </c>
       <c r="C40" s="1">
         <v>5.9909999999999997</v>
@@ -11550,7 +11551,7 @@
         <v>1477010447000000</v>
       </c>
       <c r="B41" s="1">
-        <v>2.1937799999999998</v>
+        <v>2.20364</v>
       </c>
       <c r="C41" s="1">
         <v>5.9909999999999997</v>
@@ -11561,7 +11562,7 @@
         <v>1477010447100000</v>
       </c>
       <c r="B42" s="1">
-        <v>3.2259699999999998</v>
+        <v>3.0666500000000001</v>
       </c>
       <c r="C42" s="1">
         <v>5.9909999999999997</v>
@@ -11572,7 +11573,7 @@
         <v>1477010447200000</v>
       </c>
       <c r="B43" s="1">
-        <v>4.7528100000000002</v>
+        <v>4.1896399999999998</v>
       </c>
       <c r="C43" s="1">
         <v>5.9909999999999997</v>
@@ -11583,7 +11584,7 @@
         <v>1477010447300000</v>
       </c>
       <c r="B44" s="1">
-        <v>8.5785599999999995</v>
+        <v>7.2874499999999998</v>
       </c>
       <c r="C44" s="1">
         <v>5.9909999999999997</v>
@@ -11594,7 +11595,7 @@
         <v>1477010447400000</v>
       </c>
       <c r="B45" s="1">
-        <v>2.6081099999999999</v>
+        <v>2.54074</v>
       </c>
       <c r="C45" s="1">
         <v>5.9909999999999997</v>
@@ -11605,7 +11606,7 @@
         <v>1477010447500000</v>
       </c>
       <c r="B46" s="1">
-        <v>0.29289799999999999</v>
+        <v>0.43937100000000001</v>
       </c>
       <c r="C46" s="1">
         <v>5.9909999999999997</v>
@@ -11616,7 +11617,7 @@
         <v>1477010447600000</v>
       </c>
       <c r="B47" s="1">
-        <v>0.56706100000000004</v>
+        <v>0.35499199999999997</v>
       </c>
       <c r="C47" s="1">
         <v>5.9909999999999997</v>
@@ -11627,7 +11628,7 @@
         <v>1477010447700000</v>
       </c>
       <c r="B48" s="1">
-        <v>2.1004299999999998</v>
+        <v>1.97065</v>
       </c>
       <c r="C48" s="1">
         <v>5.9909999999999997</v>
@@ -11638,7 +11639,7 @@
         <v>1477010447800000</v>
       </c>
       <c r="B49" s="1">
-        <v>0.66407400000000005</v>
+        <v>0.83703099999999997</v>
       </c>
       <c r="C49" s="1">
         <v>5.9909999999999997</v>
@@ -11649,7 +11650,7 @@
         <v>1477010447900000</v>
       </c>
       <c r="B50" s="1">
-        <v>2.07972</v>
+        <v>1.7098899999999999</v>
       </c>
       <c r="C50" s="1">
         <v>5.9909999999999997</v>
@@ -11660,7 +11661,7 @@
         <v>1477010448000000</v>
       </c>
       <c r="B51" s="1">
-        <v>0.10563599999999999</v>
+        <v>0.254664</v>
       </c>
       <c r="C51" s="1">
         <v>5.9909999999999997</v>
@@ -11671,7 +11672,7 @@
         <v>1477010448100000</v>
       </c>
       <c r="B52" s="1">
-        <v>3.1814100000000001</v>
+        <v>3.2412899999999998</v>
       </c>
       <c r="C52" s="1">
         <v>5.9909999999999997</v>
@@ -11682,7 +11683,7 @@
         <v>1477010448200000</v>
       </c>
       <c r="B53" s="1">
-        <v>0.18034500000000001</v>
+        <v>0.103364</v>
       </c>
       <c r="C53" s="1">
         <v>5.9909999999999997</v>
@@ -11693,7 +11694,7 @@
         <v>1477010448300000</v>
       </c>
       <c r="B54" s="1">
-        <v>6.17767</v>
+        <v>5.5404200000000001</v>
       </c>
       <c r="C54" s="1">
         <v>5.9909999999999997</v>
@@ -11704,7 +11705,7 @@
         <v>1477010448400000</v>
       </c>
       <c r="B55" s="1">
-        <v>0.11139</v>
+        <v>0.157997</v>
       </c>
       <c r="C55" s="1">
         <v>5.9909999999999997</v>
@@ -11715,7 +11716,7 @@
         <v>1477010448500000</v>
       </c>
       <c r="B56" s="1">
-        <v>0.89362900000000001</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="C56" s="1">
         <v>5.9909999999999997</v>
@@ -11726,7 +11727,7 @@
         <v>1477010448600000</v>
       </c>
       <c r="B57" s="1">
-        <v>3.7944</v>
+        <v>3.74715</v>
       </c>
       <c r="C57" s="1">
         <v>5.9909999999999997</v>
@@ -11737,7 +11738,7 @@
         <v>1477010448700000</v>
       </c>
       <c r="B58" s="1">
-        <v>1.1669700000000001</v>
+        <v>0.93589699999999998</v>
       </c>
       <c r="C58" s="1">
         <v>5.9909999999999997</v>
@@ -11748,7 +11749,7 @@
         <v>1477010448800000</v>
       </c>
       <c r="B59" s="1">
-        <v>2.4823300000000001</v>
+        <v>1.9799199999999999</v>
       </c>
       <c r="C59" s="1">
         <v>5.9909999999999997</v>
@@ -11759,7 +11760,7 @@
         <v>1477010448900000</v>
       </c>
       <c r="B60" s="1">
-        <v>1.3077300000000001</v>
+        <v>1.0571999999999999</v>
       </c>
       <c r="C60" s="1">
         <v>5.9909999999999997</v>
@@ -11770,7 +11771,7 @@
         <v>1477010449000000</v>
       </c>
       <c r="B61" s="1">
-        <v>3.5099800000000001</v>
+        <v>2.8708100000000001</v>
       </c>
       <c r="C61" s="1">
         <v>5.9909999999999997</v>
@@ -11781,7 +11782,7 @@
         <v>1477010449100000</v>
       </c>
       <c r="B62" s="1">
-        <v>0.33178600000000003</v>
+        <v>0.18321699999999999</v>
       </c>
       <c r="C62" s="1">
         <v>5.9909999999999997</v>
@@ -11792,7 +11793,7 @@
         <v>1477010449200000</v>
       </c>
       <c r="B63" s="1">
-        <v>0.77379500000000001</v>
+        <v>1.17005</v>
       </c>
       <c r="C63" s="1">
         <v>5.9909999999999997</v>
@@ -11803,7 +11804,7 @@
         <v>1477010449300000</v>
       </c>
       <c r="B64" s="1">
-        <v>3.3274499999999998</v>
+        <v>3.5099300000000002</v>
       </c>
       <c r="C64" s="1">
         <v>5.9909999999999997</v>
@@ -11814,7 +11815,7 @@
         <v>1477010449400000</v>
       </c>
       <c r="B65" s="1">
-        <v>1.9444699999999999</v>
+        <v>1.75044</v>
       </c>
       <c r="C65" s="1">
         <v>5.9909999999999997</v>
@@ -11825,7 +11826,7 @@
         <v>1477010449500000</v>
       </c>
       <c r="B66" s="1">
-        <v>2.3036799999999999</v>
+        <v>1.8058399999999999</v>
       </c>
       <c r="C66" s="1">
         <v>5.9909999999999997</v>
@@ -11836,7 +11837,7 @@
         <v>1477010449600000</v>
       </c>
       <c r="B67" s="1">
-        <v>0.14088300000000001</v>
+        <v>0.23044300000000001</v>
       </c>
       <c r="C67" s="1">
         <v>5.9909999999999997</v>
@@ -11847,7 +11848,7 @@
         <v>1477010449700000</v>
       </c>
       <c r="B68" s="1">
-        <v>1.3873500000000001</v>
+        <v>1.0182599999999999</v>
       </c>
       <c r="C68" s="1">
         <v>5.9909999999999997</v>
@@ -11858,7 +11859,7 @@
         <v>1477010449800000</v>
       </c>
       <c r="B69" s="1">
-        <v>1.0157400000000001</v>
+        <v>0.94401900000000005</v>
       </c>
       <c r="C69" s="1">
         <v>5.9909999999999997</v>
@@ -11869,7 +11870,7 @@
         <v>1477010449900000</v>
       </c>
       <c r="B70" s="1">
-        <v>1.3873800000000001</v>
+        <v>1.55298</v>
       </c>
       <c r="C70" s="1">
         <v>5.9909999999999997</v>
@@ -11880,7 +11881,7 @@
         <v>1477010450000000</v>
       </c>
       <c r="B71" s="1">
-        <v>1.5283199999999999</v>
+        <v>1.4840199999999999</v>
       </c>
       <c r="C71" s="1">
         <v>5.9909999999999997</v>
@@ -11891,7 +11892,7 @@
         <v>1477010450100000</v>
       </c>
       <c r="B72" s="1">
-        <v>1.73939</v>
+        <v>1.8162499999999999</v>
       </c>
       <c r="C72" s="1">
         <v>5.9909999999999997</v>
@@ -11902,7 +11903,7 @@
         <v>1477010450200000</v>
       </c>
       <c r="B73" s="1">
-        <v>2.9536799999999999</v>
+        <v>2.7999499999999999</v>
       </c>
       <c r="C73" s="1">
         <v>5.9909999999999997</v>
@@ -11913,7 +11914,7 @@
         <v>1477010450300000</v>
       </c>
       <c r="B74" s="1">
-        <v>0.63526000000000005</v>
+        <v>0.60625899999999999</v>
       </c>
       <c r="C74" s="1">
         <v>5.9909999999999997</v>
@@ -11924,7 +11925,7 @@
         <v>1477010450400000</v>
       </c>
       <c r="B75" s="1">
-        <v>0.88987799999999995</v>
+        <v>0.98541100000000004</v>
       </c>
       <c r="C75" s="1">
         <v>5.9909999999999997</v>
@@ -11935,7 +11936,7 @@
         <v>1477010450500000</v>
       </c>
       <c r="B76" s="1">
-        <v>1.9931000000000001</v>
+        <v>2.06121</v>
       </c>
       <c r="C76" s="1">
         <v>5.9909999999999997</v>
@@ -11946,7 +11947,7 @@
         <v>1477010450600000</v>
       </c>
       <c r="B77" s="1">
-        <v>0.27437299999999998</v>
+        <v>0.279945</v>
       </c>
       <c r="C77" s="1">
         <v>5.9909999999999997</v>
@@ -11957,7 +11958,7 @@
         <v>1477010450700000</v>
       </c>
       <c r="B78" s="1">
-        <v>1.51403</v>
+        <v>1.5143200000000001</v>
       </c>
       <c r="C78" s="1">
         <v>5.9909999999999997</v>
@@ -11968,7 +11969,7 @@
         <v>1477010450800000</v>
       </c>
       <c r="B79" s="1">
-        <v>0.16253400000000001</v>
+        <v>0.143063</v>
       </c>
       <c r="C79" s="1">
         <v>5.9909999999999997</v>
@@ -11979,7 +11980,7 @@
         <v>1477010450900000</v>
       </c>
       <c r="B80" s="1">
-        <v>2.2513800000000002</v>
+        <v>2.2866</v>
       </c>
       <c r="C80" s="1">
         <v>5.9909999999999997</v>
@@ -11990,7 +11991,7 @@
         <v>1477010451000000</v>
       </c>
       <c r="B81" s="1">
-        <v>0.394343</v>
+        <v>0.420323</v>
       </c>
       <c r="C81" s="1">
         <v>5.9909999999999997</v>
@@ -12001,7 +12002,7 @@
         <v>1477010451100000</v>
       </c>
       <c r="B82" s="1">
-        <v>0.77342599999999995</v>
+        <v>0.78722899999999996</v>
       </c>
       <c r="C82" s="1">
         <v>5.9909999999999997</v>
@@ -12012,7 +12013,7 @@
         <v>1477010451200000</v>
       </c>
       <c r="B83" s="1">
-        <v>2.6583199999999998</v>
+        <v>2.6250499999999999</v>
       </c>
       <c r="C83" s="1">
         <v>5.9909999999999997</v>
@@ -12023,7 +12024,7 @@
         <v>1477010451300000</v>
       </c>
       <c r="B84" s="1">
-        <v>0.97946699999999998</v>
+        <v>1.0030600000000001</v>
       </c>
       <c r="C84" s="1">
         <v>5.9909999999999997</v>
@@ -12034,7 +12035,7 @@
         <v>1477010451400000</v>
       </c>
       <c r="B85" s="1">
-        <v>0.88738899999999998</v>
+        <v>0.84826199999999996</v>
       </c>
       <c r="C85" s="1">
         <v>5.9909999999999997</v>
@@ -12045,7 +12046,7 @@
         <v>1477010451500000</v>
       </c>
       <c r="B86" s="1">
-        <v>2.2357800000000001</v>
+        <v>2.2687300000000001</v>
       </c>
       <c r="C86" s="1">
         <v>5.9909999999999997</v>
@@ -12056,7 +12057,7 @@
         <v>1477010451600000</v>
       </c>
       <c r="B87" s="1">
-        <v>2.96929</v>
+        <v>2.83805</v>
       </c>
       <c r="C87" s="1">
         <v>5.9909999999999997</v>
@@ -12067,7 +12068,7 @@
         <v>1477010451700000</v>
       </c>
       <c r="B88" s="1">
-        <v>0.199599</v>
+        <v>0.139157</v>
       </c>
       <c r="C88" s="1">
         <v>5.9909999999999997</v>
@@ -12078,7 +12079,7 @@
         <v>1477010451800000</v>
       </c>
       <c r="B89" s="1">
-        <v>4.1924200000000003</v>
+        <v>3.8296800000000002</v>
       </c>
       <c r="C89" s="1">
         <v>5.9909999999999997</v>
@@ -12089,7 +12090,7 @@
         <v>1477010451900000</v>
       </c>
       <c r="B90" s="1">
-        <v>1.3860300000000001</v>
+        <v>1.11452</v>
       </c>
       <c r="C90" s="1">
         <v>5.9909999999999997</v>
@@ -12100,7 +12101,7 @@
         <v>1477010452000000</v>
       </c>
       <c r="B91" s="1">
-        <v>0.90236099999999997</v>
+        <v>0.71317299999999995</v>
       </c>
       <c r="C91" s="1">
         <v>5.9909999999999997</v>
@@ -12111,7 +12112,7 @@
         <v>1477010452100000</v>
       </c>
       <c r="B92" s="1">
-        <v>1.81742</v>
+        <v>1.48716</v>
       </c>
       <c r="C92" s="1">
         <v>5.9909999999999997</v>
@@ -12122,7 +12123,7 @@
         <v>1477010452200000</v>
       </c>
       <c r="B93" s="1">
-        <v>0.405746</v>
+        <v>0.68582799999999999</v>
       </c>
       <c r="C93" s="1">
         <v>5.9909999999999997</v>
@@ -12133,7 +12134,7 @@
         <v>1477010452300000</v>
       </c>
       <c r="B94" s="1">
-        <v>0.87421199999999999</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C94" s="1">
         <v>5.9909999999999997</v>
@@ -12144,7 +12145,7 @@
         <v>1477010452400000</v>
       </c>
       <c r="B95" s="1">
-        <v>0.62373299999999998</v>
+        <v>0.74975000000000003</v>
       </c>
       <c r="C95" s="1">
         <v>5.9909999999999997</v>
@@ -12155,7 +12156,7 @@
         <v>1477010452500000</v>
       </c>
       <c r="B96" s="1">
-        <v>0.52228600000000003</v>
+        <v>0.67375700000000005</v>
       </c>
       <c r="C96" s="1">
         <v>5.9909999999999997</v>
@@ -12166,7 +12167,7 @@
         <v>1477010452600000</v>
       </c>
       <c r="B97" s="1">
-        <v>2.0097299999999998</v>
+        <v>2.1407500000000002</v>
       </c>
       <c r="C97" s="1">
         <v>5.9909999999999997</v>
@@ -12177,7 +12178,7 @@
         <v>1477010452700000</v>
       </c>
       <c r="B98" s="1">
-        <v>2.2996699999999999</v>
+        <v>2.2465000000000002</v>
       </c>
       <c r="C98" s="1">
         <v>5.9909999999999997</v>
@@ -12188,7 +12189,7 @@
         <v>1477010452800000</v>
       </c>
       <c r="B99" s="1">
-        <v>1.32857</v>
+        <v>1.1880500000000001</v>
       </c>
       <c r="C99" s="1">
         <v>5.9909999999999997</v>
@@ -12199,7 +12200,7 @@
         <v>1477010452900000</v>
       </c>
       <c r="B100" s="1">
-        <v>4.2913500000000004</v>
+        <v>4.5061400000000003</v>
       </c>
       <c r="C100" s="1">
         <v>5.9909999999999997</v>
@@ -12210,7 +12211,7 @@
         <v>1477010453000000</v>
       </c>
       <c r="B101" s="1">
-        <v>0.42397400000000002</v>
+        <v>0.38068800000000003</v>
       </c>
       <c r="C101" s="1">
         <v>5.9909999999999997</v>
@@ -12221,7 +12222,7 @@
         <v>1477010453100000</v>
       </c>
       <c r="B102" s="1">
-        <v>3.4134600000000001E-2</v>
+        <v>4.7496400000000001E-2</v>
       </c>
       <c r="C102" s="1">
         <v>5.9909999999999997</v>
@@ -12232,7 +12233,7 @@
         <v>1477010453200000</v>
       </c>
       <c r="B103" s="1">
-        <v>3.8059599999999998</v>
+        <v>3.6165500000000002</v>
       </c>
       <c r="C103" s="1">
         <v>5.9909999999999997</v>
@@ -12243,7 +12244,7 @@
         <v>1477010453300000</v>
       </c>
       <c r="B104" s="1">
-        <v>2.0634299999999999</v>
+        <v>2.05246</v>
       </c>
       <c r="C104" s="1">
         <v>5.9909999999999997</v>
@@ -12254,7 +12255,7 @@
         <v>1477010453400000</v>
       </c>
       <c r="B105" s="1">
-        <v>1.9004000000000001</v>
+        <v>1.6311599999999999</v>
       </c>
       <c r="C105" s="1">
         <v>5.9909999999999997</v>
@@ -12265,7 +12266,7 @@
         <v>1477010453500000</v>
       </c>
       <c r="B106" s="1">
-        <v>4.5153699999999999</v>
+        <v>3.9662799999999998</v>
       </c>
       <c r="C106" s="1">
         <v>5.9909999999999997</v>
@@ -12276,7 +12277,7 @@
         <v>1477010453600000</v>
       </c>
       <c r="B107" s="1">
-        <v>2.4466000000000002E-2</v>
+        <v>4.8591799999999997E-2</v>
       </c>
       <c r="C107" s="1">
         <v>5.9909999999999997</v>
@@ -12287,7 +12288,7 @@
         <v>1477010453700000</v>
       </c>
       <c r="B108" s="1">
-        <v>2.05152</v>
+        <v>1.6531199999999999</v>
       </c>
       <c r="C108" s="1">
         <v>5.9909999999999997</v>
@@ -12298,7 +12299,7 @@
         <v>1477010453800000</v>
       </c>
       <c r="B109" s="1">
-        <v>2.8616299999999999</v>
+        <v>2.9056299999999999</v>
       </c>
       <c r="C109" s="1">
         <v>5.9909999999999997</v>
@@ -12309,7 +12310,7 @@
         <v>1477010453900000</v>
       </c>
       <c r="B110" s="1">
-        <v>2.44041</v>
+        <v>2.0803799999999999</v>
       </c>
       <c r="C110" s="1">
         <v>5.9909999999999997</v>
@@ -12320,7 +12321,7 @@
         <v>1477010454000000</v>
       </c>
       <c r="B111" s="1">
-        <v>1.9462600000000001</v>
+        <v>2.3155299999999999</v>
       </c>
       <c r="C111" s="1">
         <v>5.9909999999999997</v>
@@ -12331,7 +12332,7 @@
         <v>1477010454100000</v>
       </c>
       <c r="B112" s="1">
-        <v>1.14863</v>
+        <v>0.96727300000000005</v>
       </c>
       <c r="C112" s="1">
         <v>5.9909999999999997</v>
@@ -12342,7 +12343,7 @@
         <v>1477010454200000</v>
       </c>
       <c r="B113" s="1">
-        <v>0.62530300000000005</v>
+        <v>0.77893599999999996</v>
       </c>
       <c r="C113" s="1">
         <v>5.9909999999999997</v>
@@ -12353,7 +12354,7 @@
         <v>1477010454300000</v>
       </c>
       <c r="B114" s="1">
-        <v>8.1536799999999996</v>
+        <v>7.7263200000000003</v>
       </c>
       <c r="C114" s="1">
         <v>5.9909999999999997</v>
@@ -12364,7 +12365,7 @@
         <v>1477010454400000</v>
       </c>
       <c r="B115" s="1">
-        <v>5.5919699999999999</v>
+        <v>5.3901300000000001</v>
       </c>
       <c r="C115" s="1">
         <v>5.9909999999999997</v>
@@ -12375,7 +12376,7 @@
         <v>1477010454500000</v>
       </c>
       <c r="B116" s="1">
-        <v>2.6478199999999998</v>
+        <v>2.1804899999999998</v>
       </c>
       <c r="C116" s="1">
         <v>5.9909999999999997</v>
@@ -12386,7 +12387,7 @@
         <v>1477010454600000</v>
       </c>
       <c r="B117" s="1">
-        <v>1.51447</v>
+        <v>1.8450200000000001</v>
       </c>
       <c r="C117" s="1">
         <v>5.9909999999999997</v>
@@ -12397,7 +12398,7 @@
         <v>1477010454700000</v>
       </c>
       <c r="B118" s="1">
-        <v>0.32757999999999998</v>
+        <v>0.49712000000000001</v>
       </c>
       <c r="C118" s="1">
         <v>5.9909999999999997</v>
@@ -12408,7 +12409,7 @@
         <v>1477010454800000</v>
       </c>
       <c r="B119" s="1">
-        <v>5.8800499999999998</v>
+        <v>5.0744300000000004</v>
       </c>
       <c r="C119" s="1">
         <v>5.9909999999999997</v>
@@ -12419,7 +12420,7 @@
         <v>1477010454900000</v>
       </c>
       <c r="B120" s="1">
-        <v>1.09175</v>
+        <v>0.86305699999999996</v>
       </c>
       <c r="C120" s="1">
         <v>5.9909999999999997</v>
@@ -12430,7 +12431,7 @@
         <v>1477010455000000</v>
       </c>
       <c r="B121" s="1">
-        <v>8.0136600000000002E-2</v>
+        <v>0.20683000000000001</v>
       </c>
       <c r="C121" s="1">
         <v>5.9909999999999997</v>
@@ -12441,7 +12442,7 @@
         <v>1477010455100000</v>
       </c>
       <c r="B122" s="1">
-        <v>2.1712400000000001</v>
+        <v>2.0198900000000002</v>
       </c>
       <c r="C122" s="1">
         <v>5.9909999999999997</v>
@@ -12452,7 +12453,7 @@
         <v>1477010455200000</v>
       </c>
       <c r="B123" s="1">
-        <v>2.2255199999999999</v>
+        <v>1.95228</v>
       </c>
       <c r="C123" s="1">
         <v>5.9909999999999997</v>
@@ -12463,7 +12464,7 @@
         <v>1477010455300000</v>
       </c>
       <c r="B124" s="1">
-        <v>1.90008</v>
+        <v>2.3838400000000002</v>
       </c>
       <c r="C124" s="1">
         <v>5.9909999999999997</v>
@@ -12474,7 +12475,7 @@
         <v>1477010455400000</v>
       </c>
       <c r="B125" s="1">
-        <v>6.9486400000000004E-2</v>
+        <v>0.145483</v>
       </c>
       <c r="C125" s="1">
         <v>5.9909999999999997</v>
@@ -12485,7 +12486,7 @@
         <v>1477010455500000</v>
       </c>
       <c r="B126" s="1">
-        <v>1.7892600000000001</v>
+        <v>1.5250999999999999</v>
       </c>
       <c r="C126" s="1">
         <v>5.9909999999999997</v>
@@ -12496,7 +12497,7 @@
         <v>1477010455600000</v>
       </c>
       <c r="B127" s="1">
-        <v>1.95305</v>
+        <v>1.76919</v>
       </c>
       <c r="C127" s="1">
         <v>5.9909999999999997</v>
@@ -12507,7 +12508,7 @@
         <v>1477010455700000</v>
       </c>
       <c r="B128" s="1">
-        <v>3.8124699999999998</v>
+        <v>3.4069400000000001</v>
       </c>
       <c r="C128" s="1">
         <v>5.9909999999999997</v>
@@ -12518,7 +12519,7 @@
         <v>1477010455800000</v>
       </c>
       <c r="B129" s="1">
-        <v>5.1215799999999998</v>
+        <v>4.6714500000000001</v>
       </c>
       <c r="C129" s="1">
         <v>5.9909999999999997</v>
@@ -12529,7 +12530,7 @@
         <v>1477010455900000</v>
       </c>
       <c r="B130" s="1">
-        <v>0.255884</v>
+        <v>0.486174</v>
       </c>
       <c r="C130" s="1">
         <v>5.9909999999999997</v>
@@ -12540,7 +12541,7 @@
         <v>1477010456000000</v>
       </c>
       <c r="B131" s="1">
-        <v>0.32450400000000001</v>
+        <v>0.36578500000000003</v>
       </c>
       <c r="C131" s="1">
         <v>5.9909999999999997</v>
@@ -12551,7 +12552,7 @@
         <v>1477010456100000</v>
       </c>
       <c r="B132" s="1">
-        <v>1.1216200000000001</v>
+        <v>0.80946200000000001</v>
       </c>
       <c r="C132" s="1">
         <v>5.9909999999999997</v>
@@ -12562,7 +12563,7 @@
         <v>1477010456200000</v>
       </c>
       <c r="B133" s="1">
-        <v>1.4960199999999999</v>
+        <v>1.21645</v>
       </c>
       <c r="C133" s="1">
         <v>5.9909999999999997</v>
@@ -12573,7 +12574,7 @@
         <v>1477010456300000</v>
       </c>
       <c r="B134" s="1">
-        <v>2.4948800000000002</v>
+        <v>2.0254699999999999</v>
       </c>
       <c r="C134" s="1">
         <v>5.9909999999999997</v>
@@ -12584,7 +12585,7 @@
         <v>1477010456400000</v>
       </c>
       <c r="B135" s="1">
-        <v>2.04901</v>
+        <v>2.4681799999999998</v>
       </c>
       <c r="C135" s="1">
         <v>5.9909999999999997</v>
@@ -12595,7 +12596,7 @@
         <v>1477010456500000</v>
       </c>
       <c r="B136" s="1">
-        <v>1.4000900000000001</v>
+        <v>1.6878</v>
       </c>
       <c r="C136" s="1">
         <v>5.9909999999999997</v>
@@ -12606,7 +12607,7 @@
         <v>1477010456600000</v>
       </c>
       <c r="B137" s="1">
-        <v>8.8947300000000007E-2</v>
+        <v>0.14546500000000001</v>
       </c>
       <c r="C137" s="1">
         <v>5.9909999999999997</v>
@@ -12617,7 +12618,7 @@
         <v>1477010456700000</v>
       </c>
       <c r="B138" s="1">
-        <v>0.16298000000000001</v>
+        <v>0.20847399999999999</v>
       </c>
       <c r="C138" s="1">
         <v>5.9909999999999997</v>
@@ -12628,7 +12629,7 @@
         <v>1477010456800000</v>
       </c>
       <c r="B139" s="1">
-        <v>8.0616299999999992</v>
+        <v>8.0969700000000007</v>
       </c>
       <c r="C139" s="1">
         <v>5.9909999999999997</v>
@@ -12639,7 +12640,7 @@
         <v>1477010456900000</v>
       </c>
       <c r="B140" s="1">
-        <v>0.68990799999999997</v>
+        <v>0.68701500000000004</v>
       </c>
       <c r="C140" s="1">
         <v>5.9909999999999997</v>
@@ -12650,7 +12651,7 @@
         <v>1477010457000000</v>
       </c>
       <c r="B141" s="1">
-        <v>3.0507300000000002</v>
+        <v>3.04901</v>
       </c>
       <c r="C141" s="1">
         <v>5.9909999999999997</v>
@@ -12661,7 +12662,7 @@
         <v>1477010457100000</v>
       </c>
       <c r="B142" s="1">
-        <v>0.10872999999999999</v>
+        <v>0.11386400000000001</v>
       </c>
       <c r="C142" s="1">
         <v>5.9909999999999997</v>
@@ -12672,7 +12673,7 @@
         <v>1477010457200000</v>
       </c>
       <c r="B143" s="1">
-        <v>2.6156000000000001</v>
+        <v>2.6105900000000002</v>
       </c>
       <c r="C143" s="1">
         <v>5.9909999999999997</v>
@@ -12683,7 +12684,7 @@
         <v>1477010457300000</v>
       </c>
       <c r="B144" s="1">
-        <v>0.43956299999999998</v>
+        <v>0.45039099999999999</v>
       </c>
       <c r="C144" s="1">
         <v>5.9909999999999997</v>
@@ -12694,7 +12695,7 @@
         <v>1477010457400000</v>
       </c>
       <c r="B145" s="1">
-        <v>1.7564500000000001</v>
+        <v>1.69743</v>
       </c>
       <c r="C145" s="1">
         <v>5.9909999999999997</v>
@@ -12705,7 +12706,7 @@
         <v>1477010457500000</v>
       </c>
       <c r="B146" s="1">
-        <v>6.2469000000000001</v>
+        <v>5.9368999999999996</v>
       </c>
       <c r="C146" s="1">
         <v>5.9909999999999997</v>
@@ -12716,7 +12717,7 @@
         <v>1477010457600000</v>
       </c>
       <c r="B147" s="1">
-        <v>1.3768800000000001</v>
+        <v>1.5446299999999999</v>
       </c>
       <c r="C147" s="1">
         <v>5.9909999999999997</v>
@@ -12727,7 +12728,7 @@
         <v>1477010457700000</v>
       </c>
       <c r="B148" s="1">
-        <v>2.0288300000000001</v>
+        <v>2.18337</v>
       </c>
       <c r="C148" s="1">
         <v>5.9909999999999997</v>
@@ -12738,7 +12739,7 @@
         <v>1477010457800000</v>
       </c>
       <c r="B149" s="1">
-        <v>3.4163300000000001E-2</v>
+        <v>2.7597099999999999E-2</v>
       </c>
       <c r="C149" s="1">
         <v>5.9909999999999997</v>
@@ -12749,7 +12750,7 @@
         <v>1477010457900000</v>
       </c>
       <c r="B150" s="1">
-        <v>2.0267400000000002</v>
+        <v>2.05585</v>
       </c>
       <c r="C150" s="1">
         <v>5.9909999999999997</v>
@@ -12760,7 +12761,7 @@
         <v>1477010458000000</v>
       </c>
       <c r="B151" s="1">
-        <v>0.48926599999999998</v>
+        <v>0.46039600000000003</v>
       </c>
       <c r="C151" s="1">
         <v>5.9909999999999997</v>
@@ -12771,7 +12772,7 @@
         <v>1477010458100000</v>
       </c>
       <c r="B152" s="1">
-        <v>8.2708499999999994</v>
+        <v>7.8505799999999999</v>
       </c>
       <c r="C152" s="1">
         <v>5.9909999999999997</v>
@@ -12782,7 +12783,7 @@
         <v>1477010458200000</v>
       </c>
       <c r="B153" s="1">
-        <v>0.57837799999999995</v>
+        <v>0.44674199999999997</v>
       </c>
       <c r="C153" s="1">
         <v>5.9909999999999997</v>
@@ -12793,7 +12794,7 @@
         <v>1477010458300000</v>
       </c>
       <c r="B154" s="1">
-        <v>1.18821</v>
+        <v>1.1911099999999999</v>
       </c>
       <c r="C154" s="1">
         <v>5.9909999999999997</v>
@@ -12804,7 +12805,7 @@
         <v>1477010458400000</v>
       </c>
       <c r="B155" s="1">
-        <v>2.5358800000000001</v>
+        <v>2.7917700000000001</v>
       </c>
       <c r="C155" s="1">
         <v>5.9909999999999997</v>
@@ -12815,7 +12816,7 @@
         <v>1477010458500000</v>
       </c>
       <c r="B156" s="1">
-        <v>2.6519900000000001</v>
+        <v>2.7787000000000002</v>
       </c>
       <c r="C156" s="1">
         <v>5.9909999999999997</v>
@@ -12826,7 +12827,7 @@
         <v>1477010458600000</v>
       </c>
       <c r="B157" s="1">
-        <v>5.5776300000000001</v>
+        <v>5.2282400000000004</v>
       </c>
       <c r="C157" s="1">
         <v>5.9909999999999997</v>
@@ -12837,7 +12838,7 @@
         <v>1477010458700000</v>
       </c>
       <c r="B158" s="1">
-        <v>6.8838999999999997</v>
+        <v>6.1017900000000003</v>
       </c>
       <c r="C158" s="1">
         <v>5.9909999999999997</v>
@@ -12848,7 +12849,7 @@
         <v>1477010458800000</v>
       </c>
       <c r="B159" s="1">
-        <v>3.67503</v>
+        <v>3.0242499999999999</v>
       </c>
       <c r="C159" s="1">
         <v>5.9909999999999997</v>
@@ -12859,7 +12860,7 @@
         <v>1477010458900000</v>
       </c>
       <c r="B160" s="1">
-        <v>5.3137499999999998</v>
+        <v>4.2218900000000001</v>
       </c>
       <c r="C160" s="1">
         <v>5.9909999999999997</v>
@@ -12870,7 +12871,7 @@
         <v>1477010459000000</v>
       </c>
       <c r="B161" s="1">
-        <v>2.89899</v>
+        <v>3.4724900000000001</v>
       </c>
       <c r="C161" s="1">
         <v>5.9909999999999997</v>
@@ -12881,7 +12882,7 @@
         <v>1477010459100000</v>
       </c>
       <c r="B162" s="1">
-        <v>5.4881000000000002</v>
+        <v>4.4416200000000003</v>
       </c>
       <c r="C162" s="1">
         <v>5.9909999999999997</v>
@@ -12892,7 +12893,7 @@
         <v>1477010459200000</v>
       </c>
       <c r="B163" s="1">
-        <v>7.1632699999999994E-2</v>
+        <v>7.3038000000000006E-2</v>
       </c>
       <c r="C163" s="1">
         <v>5.9909999999999997</v>
@@ -12903,7 +12904,7 @@
         <v>1477010459300000</v>
       </c>
       <c r="B164" s="1">
-        <v>6.2882800000000003E-2</v>
+        <v>8.2735699999999992E-3</v>
       </c>
       <c r="C164" s="1">
         <v>5.9909999999999997</v>
@@ -12914,7 +12915,7 @@
         <v>1477010459400000</v>
       </c>
       <c r="B165" s="1">
-        <v>3.20953</v>
+        <v>3.26024</v>
       </c>
       <c r="C165" s="1">
         <v>5.9909999999999997</v>
@@ -12925,7 +12926,7 @@
         <v>1477010459500000</v>
       </c>
       <c r="B166" s="1">
-        <v>3.1590400000000001</v>
+        <v>3.8896899999999999</v>
       </c>
       <c r="C166" s="1">
         <v>5.9909999999999997</v>
@@ -12936,7 +12937,7 @@
         <v>1477010459600000</v>
       </c>
       <c r="B167" s="1">
-        <v>0.77860600000000002</v>
+        <v>1.0296799999999999</v>
       </c>
       <c r="C167" s="1">
         <v>5.9909999999999997</v>
@@ -12947,7 +12948,7 @@
         <v>1477010459700000</v>
       </c>
       <c r="B168" s="1">
-        <v>1.9420599999999999</v>
+        <v>1.79498</v>
       </c>
       <c r="C168" s="1">
         <v>5.9909999999999997</v>
@@ -12958,7 +12959,7 @@
         <v>1477010459800000</v>
       </c>
       <c r="B169" s="1">
-        <v>1.32172</v>
+        <v>1.4702500000000001</v>
       </c>
       <c r="C169" s="1">
         <v>5.9909999999999997</v>
@@ -12969,7 +12970,7 @@
         <v>1477010459900000</v>
       </c>
       <c r="B170" s="1">
-        <v>6.6645099999999999E-2</v>
+        <v>0.103369</v>
       </c>
       <c r="C170" s="1">
         <v>5.9909999999999997</v>
@@ -12980,7 +12981,7 @@
         <v>1477010460000000</v>
       </c>
       <c r="B171" s="1">
-        <v>0.57960999999999996</v>
+        <v>0.55771099999999996</v>
       </c>
       <c r="C171" s="1">
         <v>5.9909999999999997</v>
@@ -12991,7 +12992,7 @@
         <v>1477010460100000</v>
       </c>
       <c r="B172" s="1">
-        <v>2.6124999999999998</v>
+        <v>2.3800300000000001</v>
       </c>
       <c r="C172" s="1">
         <v>5.9909999999999997</v>
@@ -13002,7 +13003,7 @@
         <v>1477010460200000</v>
       </c>
       <c r="B173" s="1">
-        <v>6.5183699999999997E-2</v>
+        <v>4.9305599999999998E-2</v>
       </c>
       <c r="C173" s="1">
         <v>5.9909999999999997</v>
@@ -13013,7 +13014,7 @@
         <v>1477010460300000</v>
       </c>
       <c r="B174" s="1">
-        <v>4.1333900000000003</v>
+        <v>4.0169499999999996</v>
       </c>
       <c r="C174" s="1">
         <v>5.9909999999999997</v>
@@ -13024,7 +13025,7 @@
         <v>1477010460400000</v>
       </c>
       <c r="B175" s="1">
-        <v>1.94567</v>
+        <v>1.96357</v>
       </c>
       <c r="C175" s="1">
         <v>5.9909999999999997</v>
@@ -13035,7 +13036,7 @@
         <v>1477010460500000</v>
       </c>
       <c r="B176" s="1">
-        <v>13.4902</v>
+        <v>12.923</v>
       </c>
       <c r="C176" s="1">
         <v>5.9909999999999997</v>
@@ -13046,7 +13047,7 @@
         <v>1477010460600000</v>
       </c>
       <c r="B177" s="1">
-        <v>1.5864400000000001</v>
+        <v>1.32847</v>
       </c>
       <c r="C177" s="1">
         <v>5.9909999999999997</v>
@@ -13057,7 +13058,7 @@
         <v>1477010460700000</v>
       </c>
       <c r="B178" s="1">
-        <v>2.3418299999999999</v>
+        <v>1.79017</v>
       </c>
       <c r="C178" s="1">
         <v>5.9909999999999997</v>
@@ -13068,7 +13069,7 @@
         <v>1477010460800000</v>
       </c>
       <c r="B179" s="1">
-        <v>2.8856899999999999</v>
+        <v>2.24939</v>
       </c>
       <c r="C179" s="1">
         <v>5.9909999999999997</v>
@@ -13079,7 +13080,7 @@
         <v>1477010460900000</v>
       </c>
       <c r="B180" s="1">
-        <v>0.70991800000000005</v>
+        <v>0.34353400000000001</v>
       </c>
       <c r="C180" s="1">
         <v>5.9909999999999997</v>
@@ -13090,7 +13091,7 @@
         <v>1477010461000000</v>
       </c>
       <c r="B181" s="1">
-        <v>0.18961500000000001</v>
+        <v>0.382436</v>
       </c>
       <c r="C181" s="1">
         <v>5.9909999999999997</v>
@@ -13101,7 +13102,7 @@
         <v>1477010461100000</v>
       </c>
       <c r="B182" s="1">
-        <v>5.8591300000000004</v>
+        <v>6.4293899999999997</v>
       </c>
       <c r="C182" s="1">
         <v>5.9909999999999997</v>
@@ -13112,7 +13113,7 @@
         <v>1477010461200000</v>
       </c>
       <c r="B183" s="1">
-        <v>1.39784</v>
+        <v>1.7406200000000001</v>
       </c>
       <c r="C183" s="1">
         <v>5.9909999999999997</v>
@@ -13123,7 +13124,7 @@
         <v>1477010461300000</v>
       </c>
       <c r="B184" s="1">
-        <v>1.6085199999999999</v>
+        <v>1.38497</v>
       </c>
       <c r="C184" s="1">
         <v>5.9909999999999997</v>
@@ -13134,7 +13135,7 @@
         <v>1477010461400000</v>
       </c>
       <c r="B185" s="1">
-        <v>2.3753500000000001</v>
+        <v>1.95855</v>
       </c>
       <c r="C185" s="1">
         <v>5.9909999999999997</v>
@@ -13145,7 +13146,7 @@
         <v>1477010461500000</v>
       </c>
       <c r="B186" s="1">
-        <v>4.3673999999999999</v>
+        <v>4.5369599999999997</v>
       </c>
       <c r="C186" s="1">
         <v>5.9909999999999997</v>
@@ -13156,7 +13157,7 @@
         <v>1477010461600000</v>
       </c>
       <c r="B187" s="1">
-        <v>6.2790900000000001</v>
+        <v>5.5143599999999999</v>
       </c>
       <c r="C187" s="1">
         <v>5.9909999999999997</v>
@@ -13167,7 +13168,7 @@
         <v>1477010461700000</v>
       </c>
       <c r="B188" s="1">
-        <v>1.8685700000000001</v>
+        <v>2.2815400000000001</v>
       </c>
       <c r="C188" s="1">
         <v>5.9909999999999997</v>
@@ -13178,7 +13179,7 @@
         <v>1477010461800000</v>
       </c>
       <c r="B189" s="1">
-        <v>0.35757100000000003</v>
+        <v>0.203733</v>
       </c>
       <c r="C189" s="1">
         <v>5.9909999999999997</v>
@@ -13189,7 +13190,7 @@
         <v>1477010461900000</v>
       </c>
       <c r="B190" s="1">
-        <v>0.36971599999999999</v>
+        <v>0.54540299999999997</v>
       </c>
       <c r="C190" s="1">
         <v>5.9909999999999997</v>
@@ -13200,7 +13201,7 @@
         <v>1477010462000000</v>
       </c>
       <c r="B191" s="1">
-        <v>0.99729400000000001</v>
+        <v>0.773949</v>
       </c>
       <c r="C191" s="1">
         <v>5.9909999999999997</v>
@@ -13211,7 +13212,7 @@
         <v>1477010462100000</v>
       </c>
       <c r="B192" s="1">
-        <v>0.24410499999999999</v>
+        <v>0.34581800000000001</v>
       </c>
       <c r="C192" s="1">
         <v>5.9909999999999997</v>
@@ -13222,7 +13223,7 @@
         <v>1477010462200000</v>
       </c>
       <c r="B193" s="1">
-        <v>1.6303099999999999</v>
+        <v>1.8129599999999999</v>
       </c>
       <c r="C193" s="1">
         <v>5.9909999999999997</v>
@@ -13233,7 +13234,7 @@
         <v>1477010462300000</v>
       </c>
       <c r="B194" s="1">
-        <v>3.3454299999999999</v>
+        <v>3.3846799999999999</v>
       </c>
       <c r="C194" s="1">
         <v>5.9909999999999997</v>
@@ -13244,7 +13245,7 @@
         <v>1477010462400000</v>
       </c>
       <c r="B195" s="1">
-        <v>0.71663600000000005</v>
+        <v>0.69849000000000006</v>
       </c>
       <c r="C195" s="1">
         <v>5.9909999999999997</v>
@@ -13255,7 +13256,7 @@
         <v>1477010462500000</v>
       </c>
       <c r="B196" s="1">
-        <v>6.8472099999999996</v>
+        <v>6.6258600000000003</v>
       </c>
       <c r="C196" s="1">
         <v>5.9909999999999997</v>
@@ -13266,7 +13267,7 @@
         <v>1477010462600000</v>
       </c>
       <c r="B197" s="1">
-        <v>1.4614100000000001</v>
+        <v>1.3001799999999999</v>
       </c>
       <c r="C197" s="1">
         <v>5.9909999999999997</v>
@@ -13277,7 +13278,7 @@
         <v>1477010462700000</v>
       </c>
       <c r="B198" s="1">
-        <v>1.14344</v>
+        <v>1.1554199999999999</v>
       </c>
       <c r="C198" s="1">
         <v>5.9909999999999997</v>
@@ -13288,7 +13289,7 @@
         <v>1477010462800000</v>
       </c>
       <c r="B199" s="1">
-        <v>0.21066399999999999</v>
+        <v>0.131802</v>
       </c>
       <c r="C199" s="1">
         <v>5.9909999999999997</v>
@@ -13299,7 +13300,7 @@
         <v>1477010462900000</v>
       </c>
       <c r="B200" s="1">
-        <v>0.42600500000000002</v>
+        <v>0.45386700000000002</v>
       </c>
       <c r="C200" s="1">
         <v>5.9909999999999997</v>
@@ -13310,7 +13311,7 @@
         <v>1477010463000000</v>
       </c>
       <c r="B201" s="1">
-        <v>2.3218999999999999</v>
+        <v>2.48542</v>
       </c>
       <c r="C201" s="1">
         <v>5.9909999999999997</v>
@@ -13321,7 +13322,7 @@
         <v>1477010463100000</v>
       </c>
       <c r="B202" s="1">
-        <v>1.8880399999999999</v>
+        <v>1.9050499999999999</v>
       </c>
       <c r="C202" s="1">
         <v>5.9909999999999997</v>
@@ -13332,7 +13333,7 @@
         <v>1477010463200000</v>
       </c>
       <c r="B203" s="1">
-        <v>3.4495100000000001</v>
+        <v>3.3298999999999999</v>
       </c>
       <c r="C203" s="1">
         <v>5.9909999999999997</v>
@@ -13343,7 +13344,7 @@
         <v>1477010463300000</v>
       </c>
       <c r="B204" s="1">
-        <v>0.16516500000000001</v>
+        <v>0.13808599999999999</v>
       </c>
       <c r="C204" s="1">
         <v>5.9909999999999997</v>
@@ -13354,7 +13355,7 @@
         <v>1477010463400000</v>
       </c>
       <c r="B205" s="1">
-        <v>0.19359799999999999</v>
+        <v>0.24621100000000001</v>
       </c>
       <c r="C205" s="1">
         <v>5.9909999999999997</v>
@@ -13365,7 +13366,7 @@
         <v>1477010463500000</v>
       </c>
       <c r="B206" s="1">
-        <v>0.68641300000000005</v>
+        <v>0.75751500000000005</v>
       </c>
       <c r="C206" s="1">
         <v>5.9909999999999997</v>
@@ -13376,7 +13377,7 @@
         <v>1477010463600000</v>
       </c>
       <c r="B207" s="1">
-        <v>0.17841699999999999</v>
+        <v>0.147979</v>
       </c>
       <c r="C207" s="1">
         <v>5.9909999999999997</v>
@@ -13387,7 +13388,7 @@
         <v>1477010463700000</v>
       </c>
       <c r="B208" s="1">
-        <v>1.9190199999999999</v>
+        <v>1.7323200000000001</v>
       </c>
       <c r="C208" s="1">
         <v>5.9909999999999997</v>
@@ -13398,7 +13399,7 @@
         <v>1477010463800000</v>
       </c>
       <c r="B209" s="1">
-        <v>4.6747799999999999E-2</v>
+        <v>9.1837299999999997E-2</v>
       </c>
       <c r="C209" s="1">
         <v>5.9909999999999997</v>
@@ -13409,7 +13410,7 @@
         <v>1477010463900000</v>
       </c>
       <c r="B210" s="1">
-        <v>3.6691199999999999</v>
+        <v>3.8010299999999999</v>
       </c>
       <c r="C210" s="1">
         <v>5.9909999999999997</v>
@@ -13420,7 +13421,7 @@
         <v>1477010464000000</v>
       </c>
       <c r="B211" s="1">
-        <v>2.18207</v>
+        <v>2.1219700000000001</v>
       </c>
       <c r="C211" s="1">
         <v>5.9909999999999997</v>
@@ -13431,7 +13432,7 @@
         <v>1477010464100000</v>
       </c>
       <c r="B212" s="1">
-        <v>0.316691</v>
+        <v>0.35305700000000001</v>
       </c>
       <c r="C212" s="1">
         <v>5.9909999999999997</v>
@@ -13442,7 +13443,7 @@
         <v>1477010464200000</v>
       </c>
       <c r="B213" s="1">
-        <v>1.20143</v>
+        <v>1.1120699999999999</v>
       </c>
       <c r="C213" s="1">
         <v>5.9909999999999997</v>
@@ -13453,7 +13454,7 @@
         <v>1477010464300000</v>
       </c>
       <c r="B214" s="1">
-        <v>1.46465</v>
+        <v>1.4052500000000001</v>
       </c>
       <c r="C214" s="1">
         <v>5.9909999999999997</v>
@@ -13464,7 +13465,7 @@
         <v>1477010464400000</v>
       </c>
       <c r="B215" s="1">
-        <v>6.7634799999999995E-2</v>
+        <v>9.3886700000000003E-2</v>
       </c>
       <c r="C215" s="1">
         <v>5.9909999999999997</v>
@@ -13475,7 +13476,7 @@
         <v>1477010464500000</v>
       </c>
       <c r="B216" s="1">
-        <v>0.25158399999999997</v>
+        <v>0.29851800000000001</v>
       </c>
       <c r="C216" s="1">
         <v>5.9909999999999997</v>
@@ -13486,7 +13487,7 @@
         <v>1477010464600000</v>
       </c>
       <c r="B217" s="1">
-        <v>3.7913399999999999</v>
+        <v>3.5102899999999999</v>
       </c>
       <c r="C217" s="1">
         <v>5.9909999999999997</v>
@@ -13497,7 +13498,7 @@
         <v>1477010464700000</v>
       </c>
       <c r="B218" s="1">
-        <v>0.83522200000000002</v>
+        <v>0.63677099999999998</v>
       </c>
       <c r="C218" s="1">
         <v>5.9909999999999997</v>
@@ -13508,7 +13509,7 @@
         <v>1477010464800000</v>
       </c>
       <c r="B219" s="1">
-        <v>0.79261400000000004</v>
+        <v>0.89066599999999996</v>
       </c>
       <c r="C219" s="1">
         <v>5.9909999999999997</v>
@@ -13519,7 +13520,7 @@
         <v>1477010464900000</v>
       </c>
       <c r="B220" s="1">
-        <v>2.1755300000000002</v>
+        <v>2.2659099999999999</v>
       </c>
       <c r="C220" s="1">
         <v>5.9909999999999997</v>
@@ -13530,7 +13531,7 @@
         <v>1477010465000000</v>
       </c>
       <c r="B221" s="1">
-        <v>0.40548600000000001</v>
+        <v>0.35976900000000001</v>
       </c>
       <c r="C221" s="1">
         <v>5.9909999999999997</v>
@@ -13541,7 +13542,7 @@
         <v>1477010465100000</v>
       </c>
       <c r="B222" s="1">
-        <v>2.5985499999999999</v>
+        <v>2.62148</v>
       </c>
       <c r="C222" s="1">
         <v>5.9909999999999997</v>
@@ -13552,7 +13553,7 @@
         <v>1477010465200000</v>
       </c>
       <c r="B223" s="1">
-        <v>6.1303400000000003</v>
+        <v>6.2792899999999996</v>
       </c>
       <c r="C223" s="1">
         <v>5.9909999999999997</v>
@@ -13563,7 +13564,7 @@
         <v>1477010465300000</v>
       </c>
       <c r="B224" s="1">
-        <v>2.0188899999999999</v>
+        <v>1.85537</v>
       </c>
       <c r="C224" s="1">
         <v>5.9909999999999997</v>
@@ -13574,7 +13575,7 @@
         <v>1477010465400000</v>
       </c>
       <c r="B225" s="1">
-        <v>1.4944999999999999</v>
+        <v>1.60242</v>
       </c>
       <c r="C225" s="1">
         <v>5.9909999999999997</v>
@@ -13585,7 +13586,7 @@
         <v>1477010465500000</v>
       </c>
       <c r="B226" s="1">
-        <v>6.93124E-3</v>
+        <v>1.33578E-2</v>
       </c>
       <c r="C226" s="1">
         <v>5.9909999999999997</v>
@@ -13596,7 +13597,7 @@
         <v>1477010465600000</v>
       </c>
       <c r="B227" s="1">
-        <v>4.52515</v>
+        <v>4.1697899999999999</v>
       </c>
       <c r="C227" s="1">
         <v>5.9909999999999997</v>
@@ -13607,7 +13608,7 @@
         <v>1477010465700000</v>
       </c>
       <c r="B228" s="1">
-        <v>1.79437</v>
+        <v>1.6081399999999999</v>
       </c>
       <c r="C228" s="1">
         <v>5.9909999999999997</v>
@@ -13618,7 +13619,7 @@
         <v>1477010465800000</v>
       </c>
       <c r="B229" s="1">
-        <v>5.1761499999999998</v>
+        <v>4.5445700000000002</v>
       </c>
       <c r="C229" s="1">
         <v>5.9909999999999997</v>
@@ -13629,7 +13630,7 @@
         <v>1477010465900000</v>
       </c>
       <c r="B230" s="1">
-        <v>3.3027700000000002</v>
+        <v>2.7364799999999998</v>
       </c>
       <c r="C230" s="1">
         <v>5.9909999999999997</v>
@@ -13640,7 +13641,7 @@
         <v>1477010466000000</v>
       </c>
       <c r="B231" s="1">
-        <v>4.4409999999999998</v>
+        <v>3.8722599999999998</v>
       </c>
       <c r="C231" s="1">
         <v>5.9909999999999997</v>
@@ -13651,7 +13652,7 @@
         <v>1477010466100000</v>
       </c>
       <c r="B232" s="1">
-        <v>2.8761000000000001</v>
+        <v>2.7193900000000002</v>
       </c>
       <c r="C232" s="1">
         <v>5.9909999999999997</v>
@@ -13662,7 +13663,7 @@
         <v>1477010466200000</v>
       </c>
       <c r="B233" s="1">
-        <v>3.8952000000000001E-2</v>
+        <v>4.80557E-2</v>
       </c>
       <c r="C233" s="1">
         <v>5.9909999999999997</v>
@@ -13673,7 +13674,7 @@
         <v>1477010466300000</v>
       </c>
       <c r="B234" s="1">
-        <v>0.41671000000000002</v>
+        <v>0.64345200000000002</v>
       </c>
       <c r="C234" s="1">
         <v>5.9909999999999997</v>
@@ -13684,7 +13685,7 @@
         <v>1477010466400000</v>
       </c>
       <c r="B235" s="1">
-        <v>0.94042800000000004</v>
+        <v>0.66509700000000005</v>
       </c>
       <c r="C235" s="1">
         <v>5.9909999999999997</v>
@@ -13695,7 +13696,7 @@
         <v>1477010466500000</v>
       </c>
       <c r="B236" s="1">
-        <v>1.9309700000000001</v>
+        <v>1.7567299999999999</v>
       </c>
       <c r="C236" s="1">
         <v>5.9909999999999997</v>
@@ -13706,7 +13707,7 @@
         <v>1477010466600000</v>
       </c>
       <c r="B237" s="1">
-        <v>10.2141</v>
+        <v>9.5397400000000001</v>
       </c>
       <c r="C237" s="1">
         <v>5.9909999999999997</v>
@@ -13717,7 +13718,7 @@
         <v>1477010466700000</v>
       </c>
       <c r="B238" s="1">
-        <v>0.63561599999999996</v>
+        <v>0.35596800000000001</v>
       </c>
       <c r="C238" s="1">
         <v>5.9909999999999997</v>
@@ -13728,7 +13729,7 @@
         <v>1477010466800000</v>
       </c>
       <c r="B239" s="1">
-        <v>4.4782400000000004</v>
+        <v>4.4914100000000001</v>
       </c>
       <c r="C239" s="1">
         <v>5.9909999999999997</v>
@@ -13739,7 +13740,7 @@
         <v>1477010466900000</v>
       </c>
       <c r="B240" s="1">
-        <v>1.1763399999999999</v>
+        <v>1.04616</v>
       </c>
       <c r="C240" s="1">
         <v>5.9909999999999997</v>
@@ -13750,7 +13751,7 @@
         <v>1477010467000000</v>
       </c>
       <c r="B241" s="1">
-        <v>2.7822900000000002</v>
+        <v>2.87127</v>
       </c>
       <c r="C241" s="1">
         <v>5.9909999999999997</v>
@@ -13761,7 +13762,7 @@
         <v>1477010467100000</v>
       </c>
       <c r="B242" s="1">
-        <v>0.19912099999999999</v>
+        <v>0.31873400000000002</v>
       </c>
       <c r="C242" s="1">
         <v>5.9909999999999997</v>
@@ -13772,7 +13773,7 @@
         <v>1477010467200000</v>
       </c>
       <c r="B243" s="1">
-        <v>5.2126999999999999</v>
+        <v>4.4931099999999997</v>
       </c>
       <c r="C243" s="1">
         <v>5.9909999999999997</v>
@@ -13783,7 +13784,7 @@
         <v>1477010467300000</v>
       </c>
       <c r="B244" s="1">
-        <v>0.22845099999999999</v>
+        <v>0.42862099999999997</v>
       </c>
       <c r="C244" s="1">
         <v>5.9909999999999997</v>
@@ -13794,7 +13795,7 @@
         <v>1477010467400000</v>
       </c>
       <c r="B245" s="1">
-        <v>2.3732700000000002</v>
+        <v>2.41031</v>
       </c>
       <c r="C245" s="1">
         <v>5.9909999999999997</v>
@@ -13805,7 +13806,7 @@
         <v>1477010467500000</v>
       </c>
       <c r="B246" s="1">
-        <v>0.57702500000000001</v>
+        <v>0.57179199999999997</v>
       </c>
       <c r="C246" s="1">
         <v>5.9909999999999997</v>
@@ -13816,7 +13817,7 @@
         <v>1477010467600000</v>
       </c>
       <c r="B247" s="1">
-        <v>0.64122000000000001</v>
+        <v>0.63996399999999998</v>
       </c>
       <c r="C247" s="1">
         <v>5.9909999999999997</v>
@@ -13827,7 +13828,7 @@
         <v>1477010467700000</v>
       </c>
       <c r="B248" s="1">
-        <v>6.6979300000000004</v>
+        <v>7.0019</v>
       </c>
       <c r="C248" s="1">
         <v>5.9909999999999997</v>
@@ -13838,7 +13839,7 @@
         <v>1477010467800000</v>
       </c>
       <c r="B249" s="1">
-        <v>4.7621200000000004</v>
+        <v>4.5281200000000004</v>
       </c>
       <c r="C249" s="1">
         <v>5.9909999999999997</v>
@@ -13849,7 +13850,7 @@
         <v>1477010467900000</v>
       </c>
       <c r="B250" s="1">
-        <v>0.55228699999999997</v>
+        <v>0.40923900000000002</v>
       </c>
       <c r="C250" s="1">
         <v>5.9909999999999997</v>
